--- a/20240102shuntong/下半部分/CUSHFE4/CU_data.xlsx
+++ b/20240102shuntong/下半部分/CUSHFE4/CU_data.xlsx
@@ -59,12 +59,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -94,11 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,531 +431,531 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20230801</v>
+        <v>20230707</v>
       </c>
       <c r="B2">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C2">
-        <v>70500</v>
+        <v>67610</v>
       </c>
       <c r="D2">
-        <v>70940</v>
+        <v>68020</v>
       </c>
       <c r="E2">
-        <v>69630</v>
+        <v>67580</v>
       </c>
       <c r="F2">
-        <v>69680</v>
+        <v>67920</v>
       </c>
       <c r="G2">
-        <v>138837</v>
+        <v>59693</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20230731</v>
+        <v>20230708</v>
       </c>
       <c r="B3">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C3">
-        <v>69470</v>
+        <v>67920</v>
       </c>
       <c r="D3">
-        <v>70600</v>
+        <v>67960</v>
       </c>
       <c r="E3">
-        <v>69340</v>
+        <v>67880</v>
       </c>
       <c r="F3">
-        <v>70500</v>
+        <v>67940</v>
       </c>
       <c r="G3">
-        <v>129718</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20230808</v>
+        <v>20230710</v>
       </c>
       <c r="B4">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C4">
-        <v>68740</v>
+        <v>67860</v>
       </c>
       <c r="D4">
-        <v>69030</v>
+        <v>68150</v>
       </c>
       <c r="E4">
-        <v>67770</v>
+        <v>67660</v>
       </c>
       <c r="F4">
-        <v>68100</v>
+        <v>68010</v>
       </c>
       <c r="G4">
-        <v>112831</v>
+        <v>67608</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20230802</v>
+        <v>20230711</v>
       </c>
       <c r="B5">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C5">
-        <v>69680</v>
+        <v>68010</v>
       </c>
       <c r="D5">
-        <v>69850</v>
+        <v>68340</v>
       </c>
       <c r="E5">
-        <v>68770</v>
+        <v>67520</v>
       </c>
       <c r="F5">
-        <v>68850</v>
+        <v>67640</v>
       </c>
       <c r="G5">
-        <v>105485</v>
+        <v>90917</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20231010</v>
+        <v>20230712</v>
       </c>
       <c r="B6">
-        <v>2311</v>
+        <v>202308</v>
       </c>
       <c r="C6">
-        <v>67170</v>
+        <v>67650</v>
       </c>
       <c r="D6">
-        <v>67300</v>
+        <v>68710</v>
       </c>
       <c r="E6">
-        <v>66190</v>
+        <v>67620</v>
       </c>
       <c r="F6">
-        <v>66590</v>
+        <v>68540</v>
       </c>
       <c r="G6">
-        <v>102125</v>
+        <v>83254</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20231024</v>
+        <v>20230713</v>
       </c>
       <c r="B7">
-        <v>2312</v>
+        <v>202308</v>
       </c>
       <c r="C7">
-        <v>66240</v>
+        <v>68540</v>
       </c>
       <c r="D7">
-        <v>66930</v>
+        <v>69730</v>
       </c>
       <c r="E7">
-        <v>66070</v>
+        <v>68410</v>
       </c>
       <c r="F7">
-        <v>66850</v>
+        <v>69570</v>
       </c>
       <c r="G7">
-        <v>97955</v>
+        <v>96575</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20230901</v>
+        <v>20230714</v>
       </c>
       <c r="B8">
-        <v>2310</v>
+        <v>202308</v>
       </c>
       <c r="C8">
-        <v>69240</v>
+        <v>69580</v>
       </c>
       <c r="D8">
-        <v>70210</v>
+        <v>69710</v>
       </c>
       <c r="E8">
-        <v>69180</v>
+        <v>69200</v>
       </c>
       <c r="F8">
-        <v>69680</v>
+        <v>69300</v>
       </c>
       <c r="G8">
-        <v>97482</v>
+        <v>86040</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20230713</v>
+        <v>20230715</v>
       </c>
       <c r="B9">
-        <v>2308</v>
+        <v>202308</v>
       </c>
       <c r="C9">
-        <v>68540</v>
+        <v>69300</v>
       </c>
       <c r="D9">
-        <v>69730</v>
+        <v>69390</v>
       </c>
       <c r="E9">
-        <v>68410</v>
+        <v>69280</v>
       </c>
       <c r="F9">
-        <v>69570</v>
+        <v>69380</v>
       </c>
       <c r="G9">
-        <v>96575</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20230921</v>
+        <v>20230717</v>
       </c>
       <c r="B10">
-        <v>2311</v>
+        <v>202308</v>
       </c>
       <c r="C10">
-        <v>68750</v>
+        <v>69300</v>
       </c>
       <c r="D10">
-        <v>68800</v>
+        <v>69350</v>
       </c>
       <c r="E10">
-        <v>67330</v>
+        <v>68130</v>
       </c>
       <c r="F10">
-        <v>67780</v>
+        <v>68450</v>
       </c>
       <c r="G10">
-        <v>95254</v>
+        <v>85957</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20230815</v>
+        <v>20230718</v>
       </c>
       <c r="B11">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C11">
-        <v>68160</v>
+        <v>68450</v>
       </c>
       <c r="D11">
-        <v>68680</v>
+        <v>68690</v>
       </c>
       <c r="E11">
-        <v>67770</v>
+        <v>68270</v>
       </c>
       <c r="F11">
-        <v>67830</v>
+        <v>68560</v>
       </c>
       <c r="G11">
-        <v>95049</v>
+        <v>58979</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20230727</v>
+        <v>20230719</v>
       </c>
       <c r="B12">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C12">
-        <v>69080</v>
+        <v>68560</v>
       </c>
       <c r="D12">
-        <v>69470</v>
+        <v>68790</v>
       </c>
       <c r="E12">
-        <v>68700</v>
+        <v>68340</v>
       </c>
       <c r="F12">
-        <v>68870</v>
+        <v>68520</v>
       </c>
       <c r="G12">
-        <v>92172</v>
+        <v>59393</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20230711</v>
+        <v>20230720</v>
       </c>
       <c r="B13">
-        <v>2308</v>
+        <v>202308</v>
       </c>
       <c r="C13">
-        <v>68010</v>
+        <v>68520</v>
       </c>
       <c r="D13">
-        <v>68340</v>
+        <v>68970</v>
       </c>
       <c r="E13">
-        <v>67520</v>
+        <v>68410</v>
       </c>
       <c r="F13">
-        <v>67640</v>
+        <v>68570</v>
       </c>
       <c r="G13">
-        <v>90917</v>
+        <v>61093</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20230725</v>
+        <v>20230721</v>
       </c>
       <c r="B14">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C14">
-        <v>68740</v>
+        <v>68570</v>
       </c>
       <c r="D14">
-        <v>69380</v>
+        <v>68800</v>
       </c>
       <c r="E14">
-        <v>68600</v>
+        <v>68250</v>
       </c>
       <c r="F14">
-        <v>69260</v>
+        <v>68350</v>
       </c>
       <c r="G14">
-        <v>89120</v>
+        <v>62781</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20230804</v>
+        <v>20230722</v>
       </c>
       <c r="B15">
-        <v>2309</v>
+        <v>202309</v>
       </c>
       <c r="C15">
-        <v>69270</v>
+        <v>68190</v>
       </c>
       <c r="D15">
-        <v>69660</v>
+        <v>68240</v>
       </c>
       <c r="E15">
-        <v>68800</v>
+        <v>68150</v>
       </c>
       <c r="F15">
-        <v>69150</v>
+        <v>68230</v>
       </c>
       <c r="G15">
-        <v>87048</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20231023</v>
+        <v>20230724</v>
       </c>
       <c r="B16">
-        <v>2312</v>
+        <v>202309</v>
       </c>
       <c r="C16">
-        <v>66090</v>
+        <v>68240</v>
       </c>
       <c r="D16">
-        <v>66260</v>
+        <v>68770</v>
       </c>
       <c r="E16">
-        <v>65610</v>
+        <v>68070</v>
       </c>
       <c r="F16">
-        <v>66250</v>
+        <v>68740</v>
       </c>
       <c r="G16">
-        <v>86120</v>
+        <v>65447</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20230714</v>
+        <v>20230725</v>
       </c>
       <c r="B17">
-        <v>2308</v>
+        <v>202309</v>
       </c>
       <c r="C17">
-        <v>69580</v>
+        <v>68740</v>
       </c>
       <c r="D17">
-        <v>69710</v>
+        <v>69380</v>
       </c>
       <c r="E17">
-        <v>69200</v>
+        <v>68600</v>
       </c>
       <c r="F17">
-        <v>69300</v>
+        <v>69260</v>
       </c>
       <c r="G17">
-        <v>86040</v>
+        <v>89120</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20230717</v>
+        <v>20230726</v>
       </c>
       <c r="B18">
-        <v>2308</v>
+        <v>202309</v>
       </c>
       <c r="C18">
-        <v>69300</v>
+        <v>69280</v>
       </c>
       <c r="D18">
-        <v>69350</v>
+        <v>69280</v>
       </c>
       <c r="E18">
-        <v>68130</v>
+        <v>68820</v>
       </c>
       <c r="F18">
-        <v>68450</v>
+        <v>69080</v>
       </c>
       <c r="G18">
-        <v>85957</v>
+        <v>68800</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20231128</v>
+        <v>20230727</v>
       </c>
       <c r="B19">
-        <v>2401</v>
+        <v>202309</v>
       </c>
       <c r="C19">
-        <v>67760</v>
+        <v>69080</v>
       </c>
       <c r="D19">
-        <v>68390</v>
+        <v>69470</v>
       </c>
       <c r="E19">
-        <v>67650</v>
+        <v>68700</v>
       </c>
       <c r="F19">
-        <v>68290</v>
+        <v>68870</v>
       </c>
       <c r="G19">
-        <v>84382</v>
+        <v>92172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20231009</v>
+        <v>20230728</v>
       </c>
       <c r="B20">
-        <v>2311</v>
+        <v>202309</v>
       </c>
       <c r="C20">
-        <v>67130</v>
+        <v>68860</v>
       </c>
       <c r="D20">
-        <v>67470</v>
+        <v>69400</v>
       </c>
       <c r="E20">
-        <v>67030</v>
+        <v>68700</v>
       </c>
       <c r="F20">
-        <v>67170</v>
+        <v>69400</v>
       </c>
       <c r="G20">
-        <v>83897</v>
+        <v>76891</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20231027</v>
+        <v>20230729</v>
       </c>
       <c r="B21">
-        <v>2312</v>
+        <v>202309</v>
       </c>
       <c r="C21">
-        <v>66510</v>
+        <v>69400</v>
       </c>
       <c r="D21">
-        <v>67350</v>
+        <v>69500</v>
       </c>
       <c r="E21">
-        <v>66390</v>
+        <v>69340</v>
       </c>
       <c r="F21">
-        <v>67260</v>
+        <v>69400</v>
       </c>
       <c r="G21">
-        <v>83354</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20230712</v>
+        <v>20230731</v>
       </c>
       <c r="B22">
-        <v>2308</v>
+        <v>202309</v>
       </c>
       <c r="C22">
-        <v>67650</v>
+        <v>69470</v>
       </c>
       <c r="D22">
-        <v>68710</v>
+        <v>70600</v>
       </c>
       <c r="E22">
-        <v>67620</v>
+        <v>69340</v>
       </c>
       <c r="F22">
-        <v>68540</v>
+        <v>70500</v>
       </c>
       <c r="G22">
-        <v>83254</v>
+        <v>129718</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20230816</v>
+        <v>20230801</v>
       </c>
       <c r="B23">
-        <v>2309</v>
+        <v>202309</v>
       </c>
       <c r="C23">
-        <v>67830</v>
+        <v>70500</v>
       </c>
       <c r="D23">
-        <v>68100</v>
+        <v>70940</v>
       </c>
       <c r="E23">
-        <v>67550</v>
+        <v>69630</v>
       </c>
       <c r="F23">
-        <v>67840</v>
+        <v>69680</v>
       </c>
       <c r="G23">
-        <v>82053</v>
+        <v>138837</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>20230926</v>
+        <v>20230802</v>
       </c>
       <c r="B24">
-        <v>2311</v>
+        <v>202309</v>
       </c>
       <c r="C24">
-        <v>67490</v>
+        <v>69680</v>
       </c>
       <c r="D24">
-        <v>67700</v>
+        <v>69850</v>
       </c>
       <c r="E24">
-        <v>67050</v>
+        <v>68770</v>
       </c>
       <c r="F24">
-        <v>67080</v>
+        <v>68850</v>
       </c>
       <c r="G24">
-        <v>81706</v>
+        <v>105485</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -956,7 +963,7 @@
         <v>20230803</v>
       </c>
       <c r="B25">
-        <v>2309</v>
+        <v>202309</v>
       </c>
       <c r="C25">
         <v>68840</v>
@@ -976,140 +983,140 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>20230828</v>
+        <v>20230804</v>
       </c>
       <c r="B26">
-        <v>2310</v>
+        <v>202309</v>
       </c>
       <c r="C26">
-        <v>68930</v>
+        <v>69270</v>
       </c>
       <c r="D26">
-        <v>69390</v>
+        <v>69660</v>
       </c>
       <c r="E26">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="F26">
-        <v>68940</v>
+        <v>69150</v>
       </c>
       <c r="G26">
-        <v>80659</v>
+        <v>87048</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>20230810</v>
+        <v>20230805</v>
       </c>
       <c r="B27">
-        <v>2309</v>
+        <v>202309</v>
       </c>
       <c r="C27">
-        <v>68380</v>
+        <v>69160</v>
       </c>
       <c r="D27">
-        <v>68850</v>
+        <v>69180</v>
       </c>
       <c r="E27">
-        <v>68320</v>
+        <v>69070</v>
       </c>
       <c r="F27">
-        <v>68410</v>
+        <v>69070</v>
       </c>
       <c r="G27">
-        <v>80627</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>20230915</v>
+        <v>20230807</v>
       </c>
       <c r="B28">
-        <v>2310</v>
+        <v>202309</v>
       </c>
       <c r="C28">
-        <v>69500</v>
+        <v>69000</v>
       </c>
       <c r="D28">
-        <v>69920</v>
+        <v>69230</v>
       </c>
       <c r="E28">
-        <v>69210</v>
+        <v>68720</v>
       </c>
       <c r="F28">
-        <v>69250</v>
+        <v>68750</v>
       </c>
       <c r="G28">
-        <v>80595</v>
+        <v>65054</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>20231013</v>
+        <v>20230808</v>
       </c>
       <c r="B29">
-        <v>2311</v>
+        <v>202309</v>
       </c>
       <c r="C29">
-        <v>66420</v>
+        <v>68740</v>
       </c>
       <c r="D29">
-        <v>66530</v>
+        <v>69030</v>
       </c>
       <c r="E29">
-        <v>65890</v>
+        <v>67770</v>
       </c>
       <c r="F29">
-        <v>66130</v>
+        <v>68100</v>
       </c>
       <c r="G29">
-        <v>80483</v>
+        <v>112831</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>20231205</v>
+        <v>20230809</v>
       </c>
       <c r="B30">
-        <v>2401</v>
+        <v>202309</v>
       </c>
       <c r="C30">
-        <v>68270</v>
+        <v>68100</v>
       </c>
       <c r="D30">
-        <v>68290</v>
+        <v>68730</v>
       </c>
       <c r="E30">
-        <v>67500</v>
+        <v>68090</v>
       </c>
       <c r="F30">
-        <v>67620</v>
+        <v>68390</v>
       </c>
       <c r="G30">
-        <v>80312</v>
+        <v>74309</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>20231201</v>
+        <v>20230810</v>
       </c>
       <c r="B31">
-        <v>2401</v>
+        <v>202309</v>
       </c>
       <c r="C31">
+        <v>68380</v>
+      </c>
+      <c r="D31">
+        <v>68850</v>
+      </c>
+      <c r="E31">
         <v>68320</v>
       </c>
-      <c r="D31">
-        <v>68960</v>
-      </c>
-      <c r="E31">
-        <v>68210</v>
-      </c>
       <c r="F31">
-        <v>68940</v>
+        <v>68410</v>
       </c>
       <c r="G31">
-        <v>80183</v>
+        <v>80627</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1117,7 +1124,7 @@
         <v>20230811</v>
       </c>
       <c r="B32">
-        <v>2309</v>
+        <v>202309</v>
       </c>
       <c r="C32">
         <v>68410</v>
@@ -1137,2941 +1144,2578 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>20231011</v>
+        <v>20230812</v>
       </c>
       <c r="B33">
-        <v>2311</v>
+        <v>202309</v>
       </c>
       <c r="C33">
-        <v>66600</v>
+        <v>68020</v>
       </c>
       <c r="D33">
-        <v>66950</v>
+        <v>68110</v>
       </c>
       <c r="E33">
-        <v>66550</v>
+        <v>68010</v>
       </c>
       <c r="F33">
-        <v>66580</v>
+        <v>68080</v>
       </c>
       <c r="G33">
-        <v>78951</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>20231017</v>
+        <v>20230814</v>
       </c>
       <c r="B34">
-        <v>2311</v>
+        <v>202309</v>
       </c>
       <c r="C34">
-        <v>66250</v>
+        <v>68020</v>
       </c>
       <c r="D34">
-        <v>66450</v>
+        <v>68220</v>
       </c>
       <c r="E34">
-        <v>65850</v>
+        <v>67850</v>
       </c>
       <c r="F34">
-        <v>66360</v>
+        <v>68150</v>
       </c>
       <c r="G34">
-        <v>78429</v>
+        <v>69600</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>20230919</v>
+        <v>20230815</v>
       </c>
       <c r="B35">
-        <v>2310</v>
+        <v>202309</v>
       </c>
       <c r="C35">
-        <v>69040</v>
+        <v>68160</v>
       </c>
       <c r="D35">
-        <v>69150</v>
+        <v>68680</v>
       </c>
       <c r="E35">
-        <v>68600</v>
+        <v>67770</v>
       </c>
       <c r="F35">
-        <v>68640</v>
+        <v>67830</v>
       </c>
       <c r="G35">
-        <v>78186</v>
+        <v>95049</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>20230728</v>
+        <v>20230816</v>
       </c>
       <c r="B36">
-        <v>2309</v>
+        <v>202309</v>
       </c>
       <c r="C36">
-        <v>68860</v>
+        <v>67830</v>
       </c>
       <c r="D36">
-        <v>69400</v>
+        <v>68100</v>
       </c>
       <c r="E36">
-        <v>68700</v>
+        <v>67550</v>
       </c>
       <c r="F36">
-        <v>69400</v>
+        <v>67840</v>
       </c>
       <c r="G36">
-        <v>76891</v>
+        <v>82053</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>20230914</v>
+        <v>20230817</v>
       </c>
       <c r="B37">
-        <v>2310</v>
+        <v>202309</v>
       </c>
       <c r="C37">
-        <v>69250</v>
+        <v>67840</v>
       </c>
       <c r="D37">
-        <v>69620</v>
+        <v>68550</v>
       </c>
       <c r="E37">
-        <v>69020</v>
+        <v>67560</v>
       </c>
       <c r="F37">
-        <v>69490</v>
+        <v>68170</v>
       </c>
       <c r="G37">
-        <v>76800</v>
+        <v>70203</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>20230829</v>
+        <v>20230818</v>
       </c>
       <c r="B38">
-        <v>2310</v>
+        <v>202309</v>
       </c>
       <c r="C38">
-        <v>68950</v>
+        <v>68180</v>
       </c>
       <c r="D38">
-        <v>69460</v>
+        <v>68440</v>
       </c>
       <c r="E38">
-        <v>68910</v>
+        <v>67970</v>
       </c>
       <c r="F38">
-        <v>69430</v>
+        <v>68210</v>
       </c>
       <c r="G38">
-        <v>76318</v>
+        <v>53776</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>20231214</v>
+        <v>20230819</v>
       </c>
       <c r="B39">
-        <v>2401</v>
+        <v>202309</v>
       </c>
       <c r="C39">
-        <v>67790</v>
+        <v>68210</v>
       </c>
       <c r="D39">
-        <v>68870</v>
+        <v>68310</v>
       </c>
       <c r="E39">
-        <v>67720</v>
+        <v>68170</v>
       </c>
       <c r="F39">
-        <v>68700</v>
+        <v>68230</v>
       </c>
       <c r="G39">
-        <v>75380</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>20230809</v>
+        <v>20230821</v>
       </c>
       <c r="B40">
-        <v>2309</v>
+        <v>202309</v>
       </c>
       <c r="C40">
-        <v>68100</v>
+        <v>68400</v>
       </c>
       <c r="D40">
-        <v>68730</v>
+        <v>68670</v>
       </c>
       <c r="E40">
-        <v>68090</v>
+        <v>68350</v>
       </c>
       <c r="F40">
-        <v>68390</v>
+        <v>68450</v>
       </c>
       <c r="G40">
-        <v>74309</v>
+        <v>57940</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>20230905</v>
+        <v>20230822</v>
       </c>
       <c r="B41">
-        <v>2310</v>
+        <v>202310</v>
       </c>
       <c r="C41">
-        <v>69360</v>
+        <v>68260</v>
       </c>
       <c r="D41">
-        <v>69710</v>
+        <v>68900</v>
       </c>
       <c r="E41">
-        <v>69010</v>
+        <v>68200</v>
       </c>
       <c r="F41">
-        <v>69680</v>
+        <v>68810</v>
       </c>
       <c r="G41">
-        <v>73440</v>
+        <v>57642</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>20231103</v>
+        <v>20230823</v>
       </c>
       <c r="B42">
-        <v>2312</v>
+        <v>202310</v>
       </c>
       <c r="C42">
-        <v>67540</v>
+        <v>68800</v>
       </c>
       <c r="D42">
-        <v>67880</v>
+        <v>69250</v>
       </c>
       <c r="E42">
-        <v>67310</v>
+        <v>68760</v>
       </c>
       <c r="F42">
-        <v>67470</v>
+        <v>69200</v>
       </c>
       <c r="G42">
-        <v>73293</v>
+        <v>70202</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>20231025</v>
+        <v>20230824</v>
       </c>
       <c r="B43">
-        <v>2312</v>
+        <v>202310</v>
       </c>
       <c r="C43">
-        <v>66860</v>
+        <v>69190</v>
       </c>
       <c r="D43">
-        <v>67100</v>
+        <v>69320</v>
       </c>
       <c r="E43">
-        <v>66590</v>
+        <v>68710</v>
       </c>
       <c r="F43">
-        <v>66720</v>
+        <v>68750</v>
       </c>
       <c r="G43">
-        <v>73154</v>
+        <v>67754</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>20230907</v>
+        <v>20230825</v>
       </c>
       <c r="B44">
-        <v>2310</v>
+        <v>202310</v>
       </c>
       <c r="C44">
-        <v>69060</v>
+        <v>68740</v>
       </c>
       <c r="D44">
-        <v>69230</v>
+        <v>69040</v>
       </c>
       <c r="E44">
-        <v>68740</v>
+        <v>68600</v>
       </c>
       <c r="F44">
-        <v>68970</v>
+        <v>68730</v>
       </c>
       <c r="G44">
-        <v>72311</v>
+        <v>66535</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>20231130</v>
+        <v>20230826</v>
       </c>
       <c r="B45">
-        <v>2401</v>
+        <v>202310</v>
       </c>
       <c r="C45">
-        <v>68120</v>
+        <v>68720</v>
       </c>
       <c r="D45">
-        <v>68330</v>
+        <v>68810</v>
       </c>
       <c r="E45">
-        <v>67900</v>
+        <v>68710</v>
       </c>
       <c r="F45">
-        <v>68320</v>
+        <v>68770</v>
       </c>
       <c r="G45">
-        <v>71654</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>20231121</v>
+        <v>20230828</v>
       </c>
       <c r="B46">
-        <v>2401</v>
+        <v>202310</v>
       </c>
       <c r="C46">
-        <v>68050</v>
+        <v>68930</v>
       </c>
       <c r="D46">
-        <v>68350</v>
+        <v>69390</v>
       </c>
       <c r="E46">
-        <v>67880</v>
+        <v>68700</v>
       </c>
       <c r="F46">
-        <v>68140</v>
+        <v>68940</v>
       </c>
       <c r="G46">
-        <v>71519</v>
+        <v>80659</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>20231012</v>
+        <v>20230829</v>
       </c>
       <c r="B47">
-        <v>2311</v>
+        <v>202310</v>
       </c>
       <c r="C47">
-        <v>66580</v>
+        <v>68950</v>
       </c>
       <c r="D47">
-        <v>66980</v>
+        <v>69460</v>
       </c>
       <c r="E47">
-        <v>66310</v>
+        <v>68910</v>
       </c>
       <c r="F47">
-        <v>66410</v>
+        <v>69430</v>
       </c>
       <c r="G47">
-        <v>71318</v>
+        <v>76318</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>20231207</v>
+        <v>20230830</v>
       </c>
       <c r="B48">
-        <v>2401</v>
+        <v>202310</v>
       </c>
       <c r="C48">
-        <v>67780</v>
+        <v>69420</v>
       </c>
       <c r="D48">
-        <v>67790</v>
+        <v>69640</v>
       </c>
       <c r="E48">
-        <v>67200</v>
+        <v>69240</v>
       </c>
       <c r="F48">
-        <v>67500</v>
+        <v>69620</v>
       </c>
       <c r="G48">
-        <v>71106</v>
+        <v>66101</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>20231030</v>
+        <v>20230831</v>
       </c>
       <c r="B49">
-        <v>2312</v>
+        <v>202310</v>
       </c>
       <c r="C49">
-        <v>67240</v>
+        <v>69620</v>
       </c>
       <c r="D49">
-        <v>67830</v>
+        <v>69640</v>
       </c>
       <c r="E49">
-        <v>67130</v>
+        <v>69110</v>
       </c>
       <c r="F49">
-        <v>67450</v>
+        <v>69230</v>
       </c>
       <c r="G49">
-        <v>70329</v>
+        <v>65921</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>20230817</v>
+        <v>20230901</v>
       </c>
       <c r="B50">
-        <v>2309</v>
+        <v>202310</v>
       </c>
       <c r="C50">
-        <v>67840</v>
+        <v>69240</v>
       </c>
       <c r="D50">
-        <v>68550</v>
+        <v>70210</v>
       </c>
       <c r="E50">
-        <v>67560</v>
+        <v>69180</v>
       </c>
       <c r="F50">
-        <v>68170</v>
+        <v>69680</v>
       </c>
       <c r="G50">
-        <v>70203</v>
+        <v>97482</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>20230823</v>
+        <v>20230902</v>
       </c>
       <c r="B51">
-        <v>2310</v>
+        <v>202310</v>
       </c>
       <c r="C51">
-        <v>68800</v>
+        <v>69680</v>
       </c>
       <c r="D51">
-        <v>69250</v>
+        <v>69690</v>
       </c>
       <c r="E51">
-        <v>68760</v>
+        <v>69540</v>
       </c>
       <c r="F51">
-        <v>69200</v>
+        <v>69570</v>
       </c>
       <c r="G51">
-        <v>70202</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>20230925</v>
+        <v>20230904</v>
       </c>
       <c r="B52">
-        <v>2311</v>
+        <v>202310</v>
       </c>
       <c r="C52">
-        <v>67850</v>
+        <v>69620</v>
       </c>
       <c r="D52">
-        <v>67940</v>
+        <v>69780</v>
       </c>
       <c r="E52">
-        <v>67410</v>
+        <v>69150</v>
       </c>
       <c r="F52">
-        <v>67500</v>
+        <v>69350</v>
       </c>
       <c r="G52">
-        <v>69807</v>
+        <v>67538</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>20230911</v>
+        <v>20230905</v>
       </c>
       <c r="B53">
-        <v>2310</v>
+        <v>202310</v>
       </c>
       <c r="C53">
-        <v>68530</v>
+        <v>69360</v>
       </c>
       <c r="D53">
-        <v>69500</v>
+        <v>69710</v>
       </c>
       <c r="E53">
-        <v>68530</v>
+        <v>69010</v>
       </c>
       <c r="F53">
-        <v>69350</v>
+        <v>69680</v>
       </c>
       <c r="G53">
-        <v>69607</v>
+        <v>73440</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>20230814</v>
+        <v>20230906</v>
       </c>
       <c r="B54">
-        <v>2309</v>
+        <v>202310</v>
       </c>
       <c r="C54">
-        <v>68020</v>
+        <v>69670</v>
       </c>
       <c r="D54">
-        <v>68220</v>
+        <v>69740</v>
       </c>
       <c r="E54">
-        <v>67850</v>
+        <v>69030</v>
       </c>
       <c r="F54">
-        <v>68150</v>
+        <v>69070</v>
       </c>
       <c r="G54">
-        <v>69600</v>
+        <v>64412</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>20231208</v>
+        <v>20230907</v>
       </c>
       <c r="B55">
-        <v>2401</v>
+        <v>202310</v>
       </c>
       <c r="C55">
-        <v>67500</v>
+        <v>69060</v>
       </c>
       <c r="D55">
-        <v>68800</v>
+        <v>69230</v>
       </c>
       <c r="E55">
-        <v>67490</v>
+        <v>68740</v>
       </c>
       <c r="F55">
-        <v>68760</v>
+        <v>68970</v>
       </c>
       <c r="G55">
-        <v>69600</v>
+        <v>72311</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>20230726</v>
+        <v>20230908</v>
       </c>
       <c r="B56">
-        <v>2309</v>
+        <v>202310</v>
       </c>
       <c r="C56">
-        <v>69280</v>
+        <v>68970</v>
       </c>
       <c r="D56">
-        <v>69280</v>
+        <v>68980</v>
       </c>
       <c r="E56">
-        <v>68820</v>
+        <v>68410</v>
       </c>
       <c r="F56">
-        <v>69080</v>
+        <v>68540</v>
       </c>
       <c r="G56">
-        <v>68800</v>
+        <v>63939</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>20230824</v>
+        <v>20230909</v>
       </c>
       <c r="B57">
-        <v>2310</v>
+        <v>202310</v>
       </c>
       <c r="C57">
-        <v>69190</v>
+        <v>68530</v>
       </c>
       <c r="D57">
-        <v>69320</v>
+        <v>68590</v>
       </c>
       <c r="E57">
-        <v>68710</v>
+        <v>68510</v>
       </c>
       <c r="F57">
-        <v>68750</v>
+        <v>68590</v>
       </c>
       <c r="G57">
-        <v>67754</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>20230710</v>
+        <v>20230911</v>
       </c>
       <c r="B58">
-        <v>2308</v>
+        <v>202310</v>
       </c>
       <c r="C58">
-        <v>67860</v>
+        <v>68530</v>
       </c>
       <c r="D58">
-        <v>68150</v>
+        <v>69500</v>
       </c>
       <c r="E58">
-        <v>67660</v>
+        <v>68530</v>
       </c>
       <c r="F58">
-        <v>68010</v>
+        <v>69350</v>
       </c>
       <c r="G58">
-        <v>67608</v>
+        <v>69607</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>20230904</v>
+        <v>20230912</v>
       </c>
       <c r="B59">
-        <v>2310</v>
+        <v>202310</v>
       </c>
       <c r="C59">
-        <v>69620</v>
+        <v>69360</v>
       </c>
       <c r="D59">
-        <v>69780</v>
+        <v>69450</v>
       </c>
       <c r="E59">
-        <v>69150</v>
+        <v>69010</v>
       </c>
       <c r="F59">
-        <v>69350</v>
+        <v>69210</v>
       </c>
       <c r="G59">
-        <v>67538</v>
+        <v>54137</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>20231109</v>
+        <v>20230913</v>
       </c>
       <c r="B60">
-        <v>2312</v>
+        <v>202310</v>
       </c>
       <c r="C60">
-        <v>67160</v>
+        <v>69220</v>
       </c>
       <c r="D60">
-        <v>67440</v>
+        <v>69360</v>
       </c>
       <c r="E60">
-        <v>66980</v>
+        <v>69000</v>
       </c>
       <c r="F60">
-        <v>67420</v>
+        <v>69240</v>
       </c>
       <c r="G60">
-        <v>67521</v>
+        <v>56725</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>20231122</v>
+        <v>20230914</v>
       </c>
       <c r="B61">
-        <v>2401</v>
+        <v>202310</v>
       </c>
       <c r="C61">
-        <v>68140</v>
+        <v>69250</v>
       </c>
       <c r="D61">
-        <v>68230</v>
+        <v>69620</v>
       </c>
       <c r="E61">
-        <v>67550</v>
+        <v>69020</v>
       </c>
       <c r="F61">
-        <v>67620</v>
+        <v>69490</v>
       </c>
       <c r="G61">
-        <v>67268</v>
+        <v>76800</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>20230825</v>
+        <v>20230915</v>
       </c>
       <c r="B62">
-        <v>2310</v>
+        <v>202310</v>
       </c>
       <c r="C62">
-        <v>68740</v>
+        <v>69500</v>
       </c>
       <c r="D62">
-        <v>69040</v>
+        <v>69920</v>
       </c>
       <c r="E62">
-        <v>68600</v>
+        <v>69210</v>
       </c>
       <c r="F62">
-        <v>68730</v>
+        <v>69250</v>
       </c>
       <c r="G62">
-        <v>66535</v>
+        <v>80595</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>20230922</v>
+        <v>20230916</v>
       </c>
       <c r="B63">
-        <v>2311</v>
+        <v>202310</v>
       </c>
       <c r="C63">
-        <v>67780</v>
+        <v>69260</v>
       </c>
       <c r="D63">
-        <v>68170</v>
+        <v>69320</v>
       </c>
       <c r="E63">
-        <v>67720</v>
+        <v>69250</v>
       </c>
       <c r="F63">
-        <v>67880</v>
+        <v>69320</v>
       </c>
       <c r="G63">
-        <v>66169</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>20231110</v>
+        <v>20230918</v>
       </c>
       <c r="B64">
-        <v>2312</v>
+        <v>202310</v>
       </c>
       <c r="C64">
-        <v>67410</v>
+        <v>69330</v>
       </c>
       <c r="D64">
-        <v>67450</v>
+        <v>69470</v>
       </c>
       <c r="E64">
-        <v>66720</v>
+        <v>68950</v>
       </c>
       <c r="F64">
-        <v>66770</v>
+        <v>69040</v>
       </c>
       <c r="G64">
-        <v>66125</v>
+        <v>61923</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>20230830</v>
+        <v>20230919</v>
       </c>
       <c r="B65">
-        <v>2310</v>
+        <v>202310</v>
       </c>
       <c r="C65">
-        <v>69420</v>
+        <v>69040</v>
       </c>
       <c r="D65">
-        <v>69640</v>
+        <v>69150</v>
       </c>
       <c r="E65">
-        <v>69240</v>
+        <v>68600</v>
       </c>
       <c r="F65">
-        <v>69620</v>
+        <v>68640</v>
       </c>
       <c r="G65">
-        <v>66101</v>
+        <v>78186</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>20230831</v>
+        <v>20230920</v>
       </c>
       <c r="B66">
-        <v>2310</v>
+        <v>202310</v>
       </c>
       <c r="C66">
-        <v>69620</v>
+        <v>68640</v>
       </c>
       <c r="D66">
-        <v>69640</v>
+        <v>69110</v>
       </c>
       <c r="E66">
-        <v>69110</v>
+        <v>68620</v>
       </c>
       <c r="F66">
-        <v>69230</v>
+        <v>68900</v>
       </c>
       <c r="G66">
-        <v>65921</v>
+        <v>53895</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>20230724</v>
+        <v>20230921</v>
       </c>
       <c r="B67">
-        <v>2309</v>
+        <v>202311</v>
       </c>
       <c r="C67">
-        <v>68240</v>
+        <v>68750</v>
       </c>
       <c r="D67">
-        <v>68770</v>
+        <v>68800</v>
       </c>
       <c r="E67">
-        <v>68070</v>
+        <v>67330</v>
       </c>
       <c r="F67">
-        <v>68740</v>
+        <v>67780</v>
       </c>
       <c r="G67">
-        <v>65447</v>
+        <v>95254</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>20231114</v>
+        <v>20230922</v>
       </c>
       <c r="B68">
-        <v>2312</v>
+        <v>202311</v>
       </c>
       <c r="C68">
-        <v>67430</v>
+        <v>67780</v>
       </c>
       <c r="D68">
-        <v>67910</v>
+        <v>68170</v>
       </c>
       <c r="E68">
-        <v>67380</v>
+        <v>67720</v>
       </c>
       <c r="F68">
-        <v>67790</v>
+        <v>67880</v>
       </c>
       <c r="G68">
-        <v>65217</v>
+        <v>66169</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>20230807</v>
+        <v>20230923</v>
       </c>
       <c r="B69">
-        <v>2309</v>
+        <v>202311</v>
       </c>
       <c r="C69">
-        <v>69000</v>
+        <v>67880</v>
       </c>
       <c r="D69">
-        <v>69230</v>
+        <v>67890</v>
       </c>
       <c r="E69">
-        <v>68720</v>
+        <v>67770</v>
       </c>
       <c r="F69">
-        <v>68750</v>
+        <v>67850</v>
       </c>
       <c r="G69">
-        <v>65054</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>20231020</v>
+        <v>20230925</v>
       </c>
       <c r="B70">
-        <v>2312</v>
+        <v>202311</v>
       </c>
       <c r="C70">
-        <v>66540</v>
+        <v>67850</v>
       </c>
       <c r="D70">
-        <v>66680</v>
+        <v>67940</v>
       </c>
       <c r="E70">
-        <v>65970</v>
+        <v>67410</v>
       </c>
       <c r="F70">
-        <v>66180</v>
+        <v>67500</v>
       </c>
       <c r="G70">
-        <v>64849</v>
+        <v>69807</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>20231221</v>
+        <v>20230926</v>
       </c>
       <c r="B71">
-        <v>2402</v>
+        <v>202311</v>
       </c>
       <c r="C71">
-        <v>68760</v>
+        <v>67490</v>
       </c>
       <c r="D71">
-        <v>69100</v>
+        <v>67700</v>
       </c>
       <c r="E71">
-        <v>68650</v>
+        <v>67050</v>
       </c>
       <c r="F71">
-        <v>68910</v>
+        <v>67080</v>
       </c>
       <c r="G71">
-        <v>64513</v>
+        <v>81706</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>20231226</v>
+        <v>20230927</v>
       </c>
       <c r="B72">
-        <v>2402</v>
+        <v>202311</v>
       </c>
       <c r="C72">
-        <v>69100</v>
+        <v>67080</v>
       </c>
       <c r="D72">
-        <v>69400</v>
+        <v>67350</v>
       </c>
       <c r="E72">
-        <v>68970</v>
+        <v>66980</v>
       </c>
       <c r="F72">
-        <v>69040</v>
+        <v>67240</v>
       </c>
       <c r="G72">
-        <v>64428</v>
+        <v>61584</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>20230906</v>
+        <v>20230928</v>
       </c>
       <c r="B73">
-        <v>2310</v>
+        <v>202311</v>
       </c>
       <c r="C73">
-        <v>69670</v>
+        <v>67240</v>
       </c>
       <c r="D73">
-        <v>69740</v>
+        <v>67380</v>
       </c>
       <c r="E73">
-        <v>69030</v>
+        <v>67000</v>
       </c>
       <c r="F73">
-        <v>69070</v>
+        <v>67240</v>
       </c>
       <c r="G73">
-        <v>64412</v>
+        <v>43115</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>20231018</v>
+        <v>20231009</v>
       </c>
       <c r="B74">
-        <v>2311</v>
+        <v>202311</v>
       </c>
       <c r="C74">
-        <v>66360</v>
+        <v>67130</v>
       </c>
       <c r="D74">
-        <v>66890</v>
+        <v>67470</v>
       </c>
       <c r="E74">
-        <v>66310</v>
+        <v>67030</v>
       </c>
       <c r="F74">
-        <v>66480</v>
+        <v>67170</v>
       </c>
       <c r="G74">
-        <v>64306</v>
+        <v>83897</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>20230908</v>
+        <v>20231010</v>
       </c>
       <c r="B75">
-        <v>2310</v>
+        <v>202311</v>
       </c>
       <c r="C75">
-        <v>68970</v>
+        <v>67170</v>
       </c>
       <c r="D75">
-        <v>68980</v>
+        <v>67300</v>
       </c>
       <c r="E75">
-        <v>68410</v>
+        <v>66190</v>
       </c>
       <c r="F75">
-        <v>68540</v>
+        <v>66590</v>
       </c>
       <c r="G75">
-        <v>63939</v>
+        <v>102125</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>20231222</v>
+        <v>20231011</v>
       </c>
       <c r="B76">
-        <v>2402</v>
+        <v>202311</v>
       </c>
       <c r="C76">
-        <v>68910</v>
+        <v>66600</v>
       </c>
       <c r="D76">
-        <v>69290</v>
+        <v>66950</v>
       </c>
       <c r="E76">
-        <v>68880</v>
+        <v>66550</v>
       </c>
       <c r="F76">
-        <v>69010</v>
+        <v>66580</v>
       </c>
       <c r="G76">
-        <v>63595</v>
+        <v>78951</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>20231220</v>
+        <v>20231012</v>
       </c>
       <c r="B77">
-        <v>2402</v>
+        <v>202311</v>
       </c>
       <c r="C77">
-        <v>68930</v>
+        <v>66580</v>
       </c>
       <c r="D77">
-        <v>69020</v>
+        <v>66980</v>
       </c>
       <c r="E77">
-        <v>68610</v>
+        <v>66310</v>
       </c>
       <c r="F77">
-        <v>68760</v>
+        <v>66410</v>
       </c>
       <c r="G77">
-        <v>63100</v>
+        <v>71318</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>20230721</v>
+        <v>20231013</v>
       </c>
       <c r="B78">
-        <v>2308</v>
+        <v>202311</v>
       </c>
       <c r="C78">
-        <v>68570</v>
+        <v>66420</v>
       </c>
       <c r="D78">
-        <v>68800</v>
+        <v>66530</v>
       </c>
       <c r="E78">
-        <v>68250</v>
+        <v>65890</v>
       </c>
       <c r="F78">
-        <v>68350</v>
+        <v>66130</v>
       </c>
       <c r="G78">
-        <v>62781</v>
+        <v>80483</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>20231227</v>
+        <v>20231014</v>
       </c>
       <c r="B79">
-        <v>2402</v>
+        <v>202311</v>
       </c>
       <c r="C79">
-        <v>69050</v>
+        <v>66130</v>
       </c>
       <c r="D79">
-        <v>69870</v>
+        <v>66200</v>
       </c>
       <c r="E79">
-        <v>68980</v>
+        <v>66080</v>
       </c>
       <c r="F79">
-        <v>69680</v>
+        <v>66180</v>
       </c>
       <c r="G79">
-        <v>62725</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>20231031</v>
+        <v>20231016</v>
       </c>
       <c r="B80">
-        <v>2312</v>
+        <v>202311</v>
       </c>
       <c r="C80">
-        <v>67440</v>
+        <v>66180</v>
       </c>
       <c r="D80">
-        <v>67480</v>
+        <v>66650</v>
       </c>
       <c r="E80">
-        <v>67120</v>
+        <v>66180</v>
       </c>
       <c r="F80">
-        <v>67330</v>
+        <v>66250</v>
       </c>
       <c r="G80">
-        <v>62704</v>
+        <v>59881</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>20231211</v>
+        <v>20231017</v>
       </c>
       <c r="B81">
-        <v>2401</v>
+        <v>202311</v>
       </c>
       <c r="C81">
-        <v>68540</v>
+        <v>66250</v>
       </c>
       <c r="D81">
-        <v>68550</v>
+        <v>66450</v>
       </c>
       <c r="E81">
-        <v>67800</v>
+        <v>65850</v>
       </c>
       <c r="F81">
-        <v>67990</v>
+        <v>66360</v>
       </c>
       <c r="G81">
-        <v>62535</v>
+        <v>78429</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>20231204</v>
+        <v>20231018</v>
       </c>
       <c r="B82">
-        <v>2401</v>
+        <v>202311</v>
       </c>
       <c r="C82">
-        <v>69000</v>
+        <v>66360</v>
       </c>
       <c r="D82">
-        <v>69070</v>
+        <v>66890</v>
       </c>
       <c r="E82">
-        <v>68270</v>
+        <v>66310</v>
       </c>
       <c r="F82">
-        <v>68270</v>
+        <v>66480</v>
       </c>
       <c r="G82">
-        <v>62286</v>
+        <v>64306</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>20230918</v>
+        <v>20231019</v>
       </c>
       <c r="B83">
-        <v>2310</v>
+        <v>202311</v>
       </c>
       <c r="C83">
-        <v>69330</v>
+        <v>66480</v>
       </c>
       <c r="D83">
-        <v>69470</v>
+        <v>66710</v>
       </c>
       <c r="E83">
-        <v>68950</v>
+        <v>66220</v>
       </c>
       <c r="F83">
-        <v>69040</v>
+        <v>66600</v>
       </c>
       <c r="G83">
-        <v>61923</v>
+        <v>51412</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>20230927</v>
+        <v>20231020</v>
       </c>
       <c r="B84">
-        <v>2311</v>
+        <v>202312</v>
       </c>
       <c r="C84">
-        <v>67080</v>
+        <v>66540</v>
       </c>
       <c r="D84">
-        <v>67350</v>
+        <v>66680</v>
       </c>
       <c r="E84">
-        <v>66980</v>
+        <v>65970</v>
       </c>
       <c r="F84">
-        <v>67240</v>
+        <v>66180</v>
       </c>
       <c r="G84">
-        <v>61584</v>
+        <v>64849</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>20231228</v>
+        <v>20231021</v>
       </c>
       <c r="B85">
-        <v>2402</v>
+        <v>202312</v>
       </c>
       <c r="C85">
-        <v>69670</v>
+        <v>66170</v>
       </c>
       <c r="D85">
-        <v>69750</v>
+        <v>66230</v>
       </c>
       <c r="E85">
-        <v>68930</v>
+        <v>66090</v>
       </c>
       <c r="F85">
-        <v>69050</v>
+        <v>66230</v>
       </c>
       <c r="G85">
-        <v>61415</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>20231113</v>
+        <v>20231023</v>
       </c>
       <c r="B86">
-        <v>2312</v>
+        <v>202312</v>
       </c>
       <c r="C86">
-        <v>66810</v>
+        <v>66090</v>
       </c>
       <c r="D86">
-        <v>67480</v>
+        <v>66260</v>
       </c>
       <c r="E86">
-        <v>66810</v>
+        <v>65610</v>
       </c>
       <c r="F86">
-        <v>67440</v>
+        <v>66250</v>
       </c>
       <c r="G86">
-        <v>61239</v>
+        <v>86120</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>20230720</v>
+        <v>20231024</v>
       </c>
       <c r="B87">
-        <v>2308</v>
+        <v>202312</v>
       </c>
       <c r="C87">
-        <v>68520</v>
+        <v>66240</v>
       </c>
       <c r="D87">
-        <v>68970</v>
+        <v>66930</v>
       </c>
       <c r="E87">
-        <v>68410</v>
+        <v>66070</v>
       </c>
       <c r="F87">
-        <v>68570</v>
+        <v>66850</v>
       </c>
       <c r="G87">
-        <v>61093</v>
+        <v>97955</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>20231026</v>
+        <v>20231025</v>
       </c>
       <c r="B88">
-        <v>2312</v>
+        <v>202312</v>
       </c>
       <c r="C88">
+        <v>66860</v>
+      </c>
+      <c r="D88">
+        <v>67100</v>
+      </c>
+      <c r="E88">
+        <v>66590</v>
+      </c>
+      <c r="F88">
         <v>66720</v>
       </c>
-      <c r="D88">
-        <v>66750</v>
-      </c>
-      <c r="E88">
-        <v>66380</v>
-      </c>
-      <c r="F88">
-        <v>66520</v>
-      </c>
       <c r="G88">
-        <v>60666</v>
+        <v>73154</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>20231101</v>
+        <v>20231026</v>
       </c>
       <c r="B89">
-        <v>2312</v>
+        <v>202312</v>
       </c>
       <c r="C89">
-        <v>67330</v>
+        <v>66720</v>
       </c>
       <c r="D89">
-        <v>67700</v>
+        <v>66750</v>
       </c>
       <c r="E89">
-        <v>67080</v>
+        <v>66380</v>
       </c>
       <c r="F89">
-        <v>67460</v>
+        <v>66520</v>
       </c>
       <c r="G89">
-        <v>60559</v>
+        <v>60666</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>20231016</v>
+        <v>20231027</v>
       </c>
       <c r="B90">
-        <v>2311</v>
+        <v>202312</v>
       </c>
       <c r="C90">
-        <v>66180</v>
+        <v>66510</v>
       </c>
       <c r="D90">
-        <v>66650</v>
+        <v>67350</v>
       </c>
       <c r="E90">
-        <v>66180</v>
+        <v>66390</v>
       </c>
       <c r="F90">
-        <v>66250</v>
+        <v>67260</v>
       </c>
       <c r="G90">
-        <v>59881</v>
+        <v>83354</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>20230707</v>
+        <v>20231028</v>
       </c>
       <c r="B91">
-        <v>2308</v>
+        <v>202312</v>
       </c>
       <c r="C91">
-        <v>67610</v>
+        <v>67260</v>
       </c>
       <c r="D91">
-        <v>68020</v>
+        <v>67270</v>
       </c>
       <c r="E91">
-        <v>67580</v>
+        <v>67100</v>
       </c>
       <c r="F91">
-        <v>67920</v>
+        <v>67210</v>
       </c>
       <c r="G91">
-        <v>59693</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>20230719</v>
+        <v>20231030</v>
       </c>
       <c r="B92">
-        <v>2308</v>
+        <v>202312</v>
       </c>
       <c r="C92">
-        <v>68560</v>
+        <v>67240</v>
       </c>
       <c r="D92">
-        <v>68790</v>
+        <v>67830</v>
       </c>
       <c r="E92">
-        <v>68340</v>
+        <v>67130</v>
       </c>
       <c r="F92">
-        <v>68520</v>
+        <v>67450</v>
       </c>
       <c r="G92">
-        <v>59393</v>
+        <v>70329</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>20231117</v>
+        <v>20231031</v>
       </c>
       <c r="B93">
-        <v>2312</v>
+        <v>202312</v>
       </c>
       <c r="C93">
-        <v>67670</v>
+        <v>67440</v>
       </c>
       <c r="D93">
-        <v>67980</v>
+        <v>67480</v>
       </c>
       <c r="E93">
-        <v>67500</v>
+        <v>67120</v>
       </c>
       <c r="F93">
-        <v>67850</v>
+        <v>67330</v>
       </c>
       <c r="G93">
-        <v>59148</v>
+        <v>62704</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>20231127</v>
+        <v>20231101</v>
       </c>
       <c r="B94">
-        <v>2401</v>
+        <v>202312</v>
       </c>
       <c r="C94">
-        <v>68030</v>
+        <v>67330</v>
       </c>
       <c r="D94">
-        <v>68190</v>
+        <v>67700</v>
       </c>
       <c r="E94">
-        <v>67750</v>
+        <v>67080</v>
       </c>
       <c r="F94">
-        <v>67770</v>
+        <v>67460</v>
       </c>
       <c r="G94">
-        <v>59139</v>
+        <v>60559</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>20230718</v>
+        <v>20231102</v>
       </c>
       <c r="B95">
-        <v>2308</v>
+        <v>202312</v>
       </c>
       <c r="C95">
-        <v>68450</v>
+        <v>67460</v>
       </c>
       <c r="D95">
-        <v>68690</v>
+        <v>67660</v>
       </c>
       <c r="E95">
-        <v>68270</v>
+        <v>67310</v>
       </c>
       <c r="F95">
-        <v>68560</v>
+        <v>67530</v>
       </c>
       <c r="G95">
-        <v>58979</v>
+        <v>49604</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>20231129</v>
+        <v>20231103</v>
       </c>
       <c r="B96">
-        <v>2401</v>
+        <v>202312</v>
       </c>
       <c r="C96">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D96">
-        <v>68360</v>
+        <v>67880</v>
       </c>
       <c r="E96">
-        <v>68000</v>
+        <v>67310</v>
       </c>
       <c r="F96">
-        <v>68110</v>
+        <v>67470</v>
       </c>
       <c r="G96">
-        <v>58327</v>
+        <v>73293</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>20230821</v>
+        <v>20231104</v>
       </c>
       <c r="B97">
-        <v>2309</v>
+        <v>202312</v>
       </c>
       <c r="C97">
-        <v>68400</v>
+        <v>67480</v>
       </c>
       <c r="D97">
-        <v>68670</v>
+        <v>67500</v>
       </c>
       <c r="E97">
-        <v>68350</v>
+        <v>67350</v>
       </c>
       <c r="F97">
-        <v>68450</v>
+        <v>67360</v>
       </c>
       <c r="G97">
-        <v>57940</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>20230822</v>
+        <v>20231106</v>
       </c>
       <c r="B98">
-        <v>2310</v>
+        <v>202312</v>
       </c>
       <c r="C98">
-        <v>68260</v>
+        <v>67350</v>
       </c>
       <c r="D98">
-        <v>68900</v>
+        <v>67830</v>
       </c>
       <c r="E98">
-        <v>68200</v>
+        <v>67250</v>
       </c>
       <c r="F98">
-        <v>68810</v>
+        <v>67670</v>
       </c>
       <c r="G98">
-        <v>57642</v>
+        <v>52012</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>20231215</v>
+        <v>20231107</v>
       </c>
       <c r="B99">
-        <v>2401</v>
+        <v>202312</v>
       </c>
       <c r="C99">
-        <v>68700</v>
+        <v>67680</v>
       </c>
       <c r="D99">
-        <v>68800</v>
+        <v>67730</v>
       </c>
       <c r="E99">
-        <v>68330</v>
+        <v>67100</v>
       </c>
       <c r="F99">
-        <v>68690</v>
+        <v>67350</v>
       </c>
       <c r="G99">
-        <v>57530</v>
+        <v>57099</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>20231107</v>
+        <v>20231108</v>
       </c>
       <c r="B100">
-        <v>2312</v>
+        <v>202312</v>
       </c>
       <c r="C100">
-        <v>67680</v>
+        <v>67340</v>
       </c>
       <c r="D100">
-        <v>67730</v>
+        <v>67550</v>
       </c>
       <c r="E100">
-        <v>67100</v>
+        <v>67150</v>
       </c>
       <c r="F100">
-        <v>67350</v>
+        <v>67150</v>
       </c>
       <c r="G100">
-        <v>57099</v>
+        <v>50928</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>20231219</v>
+        <v>20231109</v>
       </c>
       <c r="B101">
-        <v>2402</v>
+        <v>202312</v>
       </c>
       <c r="C101">
-        <v>68290</v>
+        <v>67160</v>
       </c>
       <c r="D101">
-        <v>69180</v>
+        <v>67440</v>
       </c>
       <c r="E101">
-        <v>68230</v>
+        <v>66980</v>
       </c>
       <c r="F101">
-        <v>68930</v>
+        <v>67420</v>
       </c>
       <c r="G101">
-        <v>56862</v>
+        <v>67521</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>20230913</v>
+        <v>20231110</v>
       </c>
       <c r="B102">
-        <v>2310</v>
+        <v>202312</v>
       </c>
       <c r="C102">
-        <v>69220</v>
+        <v>67410</v>
       </c>
       <c r="D102">
-        <v>69360</v>
+        <v>67450</v>
       </c>
       <c r="E102">
-        <v>69000</v>
+        <v>66720</v>
       </c>
       <c r="F102">
-        <v>69240</v>
+        <v>66770</v>
       </c>
       <c r="G102">
-        <v>56725</v>
+        <v>66125</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>20231120</v>
+        <v>20231111</v>
       </c>
       <c r="B103">
-        <v>2312</v>
+        <v>202312</v>
       </c>
       <c r="C103">
-        <v>67860</v>
+        <v>66760</v>
       </c>
       <c r="D103">
-        <v>68270</v>
+        <v>66840</v>
       </c>
       <c r="E103">
-        <v>67860</v>
+        <v>66750</v>
       </c>
       <c r="F103">
-        <v>68250</v>
+        <v>66810</v>
       </c>
       <c r="G103">
-        <v>56347</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>20231115</v>
+        <v>20231113</v>
       </c>
       <c r="B104">
-        <v>2312</v>
+        <v>202312</v>
       </c>
       <c r="C104">
-        <v>67780</v>
+        <v>66810</v>
       </c>
       <c r="D104">
-        <v>67940</v>
+        <v>67480</v>
       </c>
       <c r="E104">
-        <v>67530</v>
+        <v>66810</v>
       </c>
       <c r="F104">
-        <v>67910</v>
+        <v>67440</v>
       </c>
       <c r="G104">
-        <v>54890</v>
+        <v>61239</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>20231206</v>
+        <v>20231114</v>
       </c>
       <c r="B105">
-        <v>2401</v>
+        <v>202312</v>
       </c>
       <c r="C105">
-        <v>67620</v>
+        <v>67430</v>
       </c>
       <c r="D105">
-        <v>68190</v>
+        <v>67910</v>
       </c>
       <c r="E105">
-        <v>67490</v>
+        <v>67380</v>
       </c>
       <c r="F105">
-        <v>67770</v>
+        <v>67790</v>
       </c>
       <c r="G105">
-        <v>54808</v>
+        <v>65217</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>20231116</v>
+        <v>20231115</v>
       </c>
       <c r="B106">
-        <v>2312</v>
+        <v>202312</v>
       </c>
       <c r="C106">
-        <v>67920</v>
+        <v>67780</v>
       </c>
       <c r="D106">
-        <v>68020</v>
+        <v>67940</v>
       </c>
       <c r="E106">
-        <v>67600</v>
+        <v>67530</v>
       </c>
       <c r="F106">
-        <v>67670</v>
+        <v>67910</v>
       </c>
       <c r="G106">
-        <v>54760</v>
+        <v>54890</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>20230912</v>
+        <v>20231116</v>
       </c>
       <c r="B107">
-        <v>2310</v>
+        <v>202312</v>
       </c>
       <c r="C107">
-        <v>69360</v>
+        <v>67920</v>
       </c>
       <c r="D107">
-        <v>69450</v>
+        <v>68020</v>
       </c>
       <c r="E107">
-        <v>69010</v>
+        <v>67600</v>
       </c>
       <c r="F107">
-        <v>69210</v>
+        <v>67670</v>
       </c>
       <c r="G107">
-        <v>54137</v>
+        <v>54760</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>20230920</v>
+        <v>20231117</v>
       </c>
       <c r="B108">
-        <v>2310</v>
+        <v>202312</v>
       </c>
       <c r="C108">
-        <v>68640</v>
+        <v>67670</v>
       </c>
       <c r="D108">
-        <v>69110</v>
+        <v>67980</v>
       </c>
       <c r="E108">
-        <v>68620</v>
+        <v>67500</v>
       </c>
       <c r="F108">
-        <v>68900</v>
+        <v>67850</v>
       </c>
       <c r="G108">
-        <v>53895</v>
+        <v>59148</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>20230818</v>
+        <v>20231118</v>
       </c>
       <c r="B109">
-        <v>2309</v>
+        <v>202312</v>
       </c>
       <c r="C109">
-        <v>68180</v>
+        <v>67840</v>
       </c>
       <c r="D109">
-        <v>68440</v>
+        <v>67880</v>
       </c>
       <c r="E109">
-        <v>67970</v>
+        <v>67790</v>
       </c>
       <c r="F109">
-        <v>68210</v>
+        <v>67860</v>
       </c>
       <c r="G109">
-        <v>53776</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>20231123</v>
+        <v>20231120</v>
       </c>
       <c r="B110">
-        <v>2401</v>
+        <v>202312</v>
       </c>
       <c r="C110">
-        <v>67620</v>
+        <v>67860</v>
       </c>
       <c r="D110">
-        <v>68100</v>
+        <v>68270</v>
       </c>
       <c r="E110">
-        <v>67590</v>
+        <v>67860</v>
       </c>
       <c r="F110">
-        <v>68090</v>
+        <v>68250</v>
       </c>
       <c r="G110">
-        <v>53317</v>
+        <v>56347</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>20231212</v>
+        <v>20231121</v>
       </c>
       <c r="B111">
-        <v>2401</v>
+        <v>202401</v>
       </c>
       <c r="C111">
-        <v>67990</v>
+        <v>68050</v>
       </c>
       <c r="D111">
-        <v>68180</v>
+        <v>68350</v>
       </c>
       <c r="E111">
-        <v>67740</v>
+        <v>67880</v>
       </c>
       <c r="F111">
-        <v>68020</v>
+        <v>68140</v>
       </c>
       <c r="G111">
-        <v>53167</v>
+        <v>71519</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>20231106</v>
+        <v>20231122</v>
       </c>
       <c r="B112">
-        <v>2312</v>
+        <v>202401</v>
       </c>
       <c r="C112">
-        <v>67350</v>
+        <v>68140</v>
       </c>
       <c r="D112">
-        <v>67830</v>
+        <v>68230</v>
       </c>
       <c r="E112">
-        <v>67250</v>
+        <v>67550</v>
       </c>
       <c r="F112">
-        <v>67670</v>
+        <v>67620</v>
       </c>
       <c r="G112">
-        <v>52012</v>
+        <v>67268</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>20231019</v>
+        <v>20231123</v>
       </c>
       <c r="B113">
-        <v>2311</v>
+        <v>202401</v>
       </c>
       <c r="C113">
-        <v>66480</v>
+        <v>67620</v>
       </c>
       <c r="D113">
-        <v>66710</v>
+        <v>68100</v>
       </c>
       <c r="E113">
-        <v>66220</v>
+        <v>67590</v>
       </c>
       <c r="F113">
-        <v>66600</v>
+        <v>68090</v>
       </c>
       <c r="G113">
-        <v>51412</v>
+        <v>53317</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>20231108</v>
+        <v>20231124</v>
       </c>
       <c r="B114">
-        <v>2312</v>
+        <v>202401</v>
       </c>
       <c r="C114">
-        <v>67340</v>
+        <v>68090</v>
       </c>
       <c r="D114">
-        <v>67550</v>
+        <v>68130</v>
       </c>
       <c r="E114">
-        <v>67150</v>
+        <v>67730</v>
       </c>
       <c r="F114">
-        <v>67150</v>
+        <v>68010</v>
       </c>
       <c r="G114">
-        <v>50928</v>
+        <v>48021</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>20231102</v>
+        <v>20231125</v>
       </c>
       <c r="B115">
-        <v>2312</v>
+        <v>202401</v>
       </c>
       <c r="C115">
-        <v>67460</v>
+        <v>68020</v>
       </c>
       <c r="D115">
-        <v>67660</v>
+        <v>68110</v>
       </c>
       <c r="E115">
-        <v>67310</v>
+        <v>67970</v>
       </c>
       <c r="F115">
-        <v>67530</v>
+        <v>68010</v>
       </c>
       <c r="G115">
-        <v>49604</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>20231124</v>
+        <v>20231127</v>
       </c>
       <c r="B116">
-        <v>2401</v>
+        <v>202401</v>
       </c>
       <c r="C116">
-        <v>68090</v>
+        <v>68030</v>
       </c>
       <c r="D116">
-        <v>68130</v>
+        <v>68190</v>
       </c>
       <c r="E116">
-        <v>67730</v>
+        <v>67750</v>
       </c>
       <c r="F116">
-        <v>68010</v>
+        <v>67770</v>
       </c>
       <c r="G116">
-        <v>48021</v>
+        <v>59139</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>20231213</v>
+        <v>20231128</v>
       </c>
       <c r="B117">
-        <v>2401</v>
+        <v>202401</v>
       </c>
       <c r="C117">
-        <v>68010</v>
+        <v>67760</v>
       </c>
       <c r="D117">
-        <v>68090</v>
+        <v>68390</v>
       </c>
       <c r="E117">
-        <v>67690</v>
+        <v>67650</v>
       </c>
       <c r="F117">
-        <v>67790</v>
+        <v>68290</v>
       </c>
       <c r="G117">
-        <v>46177</v>
+        <v>84382</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>20230928</v>
+        <v>20231129</v>
       </c>
       <c r="B118">
-        <v>2311</v>
+        <v>202401</v>
       </c>
       <c r="C118">
-        <v>67240</v>
+        <v>68290</v>
       </c>
       <c r="D118">
-        <v>67380</v>
+        <v>68360</v>
       </c>
       <c r="E118">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="F118">
-        <v>67240</v>
+        <v>68110</v>
       </c>
       <c r="G118">
-        <v>43115</v>
+        <v>58327</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>20231218</v>
+        <v>20231130</v>
       </c>
       <c r="B119">
-        <v>2401</v>
+        <v>202401</v>
       </c>
       <c r="C119">
-        <v>68620</v>
+        <v>68120</v>
       </c>
       <c r="D119">
-        <v>68720</v>
+        <v>68330</v>
       </c>
       <c r="E119">
-        <v>68410</v>
+        <v>67900</v>
       </c>
       <c r="F119">
-        <v>68430</v>
+        <v>68320</v>
       </c>
       <c r="G119">
-        <v>42299</v>
+        <v>71654</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>20231229</v>
+        <v>20231201</v>
       </c>
       <c r="B120">
-        <v>2402</v>
+        <v>202401</v>
       </c>
       <c r="C120">
-        <v>69050</v>
+        <v>68320</v>
       </c>
       <c r="D120">
-        <v>69060</v>
+        <v>68960</v>
       </c>
       <c r="E120">
-        <v>68810</v>
+        <v>68210</v>
       </c>
       <c r="F120">
-        <v>68920</v>
+        <v>68940</v>
       </c>
       <c r="G120">
-        <v>36287</v>
+        <v>80183</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>20231225</v>
+        <v>20231202</v>
       </c>
       <c r="B121">
-        <v>2402</v>
+        <v>202401</v>
       </c>
       <c r="C121">
-        <v>69040</v>
+        <v>68950</v>
       </c>
       <c r="D121">
-        <v>69140</v>
+        <v>69150</v>
       </c>
       <c r="E121">
-        <v>68930</v>
+        <v>68880</v>
       </c>
       <c r="F121">
-        <v>69100</v>
+        <v>68990</v>
       </c>
       <c r="G121">
-        <v>31437</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>20230729</v>
+        <v>20231204</v>
       </c>
       <c r="B122">
-        <v>2309</v>
+        <v>202401</v>
       </c>
       <c r="C122">
-        <v>69400</v>
+        <v>69000</v>
       </c>
       <c r="D122">
-        <v>69500</v>
+        <v>69070</v>
       </c>
       <c r="E122">
-        <v>69340</v>
+        <v>68270</v>
       </c>
       <c r="F122">
-        <v>69400</v>
+        <v>68270</v>
       </c>
       <c r="G122">
-        <v>8073</v>
+        <v>62286</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>20231202</v>
+        <v>20231205</v>
       </c>
       <c r="B123">
-        <v>2401</v>
+        <v>202401</v>
       </c>
       <c r="C123">
-        <v>68950</v>
+        <v>68270</v>
       </c>
       <c r="D123">
-        <v>69150</v>
+        <v>68290</v>
       </c>
       <c r="E123">
-        <v>68880</v>
+        <v>67500</v>
       </c>
       <c r="F123">
-        <v>68990</v>
+        <v>67620</v>
       </c>
       <c r="G123">
-        <v>6740</v>
+        <v>80312</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>20231223</v>
+        <v>20231206</v>
       </c>
       <c r="B124">
-        <v>2402</v>
+        <v>202401</v>
       </c>
       <c r="C124">
-        <v>69010</v>
+        <v>67620</v>
       </c>
       <c r="D124">
-        <v>69100</v>
+        <v>68190</v>
       </c>
       <c r="E124">
-        <v>68920</v>
+        <v>67490</v>
       </c>
       <c r="F124">
-        <v>69080</v>
+        <v>67770</v>
       </c>
       <c r="G124">
-        <v>4859</v>
+        <v>54808</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>20231104</v>
+        <v>20231207</v>
       </c>
       <c r="B125">
-        <v>2312</v>
+        <v>202401</v>
       </c>
       <c r="C125">
-        <v>67480</v>
+        <v>67780</v>
       </c>
       <c r="D125">
+        <v>67790</v>
+      </c>
+      <c r="E125">
+        <v>67200</v>
+      </c>
+      <c r="F125">
         <v>67500</v>
       </c>
-      <c r="E125">
-        <v>67350</v>
-      </c>
-      <c r="F125">
-        <v>67360</v>
-      </c>
       <c r="G125">
-        <v>3666</v>
+        <v>71106</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>20230902</v>
+        <v>20231208</v>
       </c>
       <c r="B126">
-        <v>2310</v>
+        <v>202401</v>
       </c>
       <c r="C126">
-        <v>69680</v>
+        <v>67500</v>
       </c>
       <c r="D126">
-        <v>69690</v>
+        <v>68800</v>
       </c>
       <c r="E126">
-        <v>69540</v>
+        <v>67490</v>
       </c>
       <c r="F126">
-        <v>69570</v>
+        <v>68760</v>
       </c>
       <c r="G126">
-        <v>3276</v>
+        <v>69600</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>20230923</v>
+        <v>20231209</v>
       </c>
       <c r="B127">
-        <v>2311</v>
+        <v>202401</v>
       </c>
       <c r="C127">
-        <v>67880</v>
+        <v>68760</v>
       </c>
       <c r="D127">
-        <v>67890</v>
+        <v>68770</v>
       </c>
       <c r="E127">
-        <v>67770</v>
+        <v>68540</v>
       </c>
       <c r="F127">
-        <v>67850</v>
+        <v>68540</v>
       </c>
       <c r="G127">
-        <v>2977</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>20231209</v>
+        <v>20231211</v>
       </c>
       <c r="B128">
-        <v>2401</v>
+        <v>202401</v>
       </c>
       <c r="C128">
-        <v>68760</v>
+        <v>68540</v>
       </c>
       <c r="D128">
-        <v>68770</v>
+        <v>68550</v>
       </c>
       <c r="E128">
-        <v>68540</v>
+        <v>67800</v>
       </c>
       <c r="F128">
-        <v>68540</v>
+        <v>67990</v>
       </c>
       <c r="G128">
-        <v>2942</v>
+        <v>62535</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>20231125</v>
+        <v>20231212</v>
       </c>
       <c r="B129">
-        <v>2401</v>
+        <v>202401</v>
       </c>
       <c r="C129">
+        <v>67990</v>
+      </c>
+      <c r="D129">
+        <v>68180</v>
+      </c>
+      <c r="E129">
+        <v>67740</v>
+      </c>
+      <c r="F129">
         <v>68020</v>
       </c>
-      <c r="D129">
-        <v>68110</v>
-      </c>
-      <c r="E129">
-        <v>67970</v>
-      </c>
-      <c r="F129">
-        <v>68010</v>
-      </c>
       <c r="G129">
-        <v>2811</v>
+        <v>53167</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>20231111</v>
+        <v>20231213</v>
       </c>
       <c r="B130">
-        <v>2312</v>
+        <v>202401</v>
       </c>
       <c r="C130">
-        <v>66760</v>
+        <v>68010</v>
       </c>
       <c r="D130">
-        <v>66840</v>
+        <v>68090</v>
       </c>
       <c r="E130">
-        <v>66750</v>
+        <v>67690</v>
       </c>
       <c r="F130">
-        <v>66810</v>
+        <v>67790</v>
       </c>
       <c r="G130">
-        <v>2810</v>
+        <v>46177</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>20231216</v>
+        <v>20231214</v>
       </c>
       <c r="B131">
-        <v>2402</v>
+        <v>202401</v>
       </c>
       <c r="C131">
-        <v>68550</v>
+        <v>67790</v>
       </c>
       <c r="D131">
-        <v>68610</v>
+        <v>68870</v>
       </c>
       <c r="E131">
-        <v>68450</v>
+        <v>67720</v>
       </c>
       <c r="F131">
-        <v>68540</v>
+        <v>68700</v>
       </c>
       <c r="G131">
-        <v>2715</v>
+        <v>75380</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>20231021</v>
+        <v>20231215</v>
       </c>
       <c r="B132">
-        <v>2312</v>
+        <v>202401</v>
       </c>
       <c r="C132">
-        <v>66170</v>
+        <v>68700</v>
       </c>
       <c r="D132">
-        <v>66230</v>
+        <v>68800</v>
       </c>
       <c r="E132">
-        <v>66090</v>
+        <v>68330</v>
       </c>
       <c r="F132">
-        <v>66230</v>
+        <v>68690</v>
       </c>
       <c r="G132">
-        <v>2658</v>
+        <v>57530</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>20230812</v>
+        <v>20231216</v>
       </c>
       <c r="B133">
-        <v>2309</v>
+        <v>202402</v>
       </c>
       <c r="C133">
-        <v>68020</v>
+        <v>68550</v>
       </c>
       <c r="D133">
-        <v>68110</v>
+        <v>68610</v>
       </c>
       <c r="E133">
-        <v>68010</v>
+        <v>68450</v>
       </c>
       <c r="F133">
-        <v>68080</v>
+        <v>68540</v>
       </c>
       <c r="G133">
-        <v>2454</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>20230715</v>
+        <v>20231218</v>
       </c>
       <c r="B134">
-        <v>2308</v>
+        <v>202401</v>
       </c>
       <c r="C134">
-        <v>69300</v>
+        <v>68620</v>
       </c>
       <c r="D134">
-        <v>69390</v>
+        <v>68720</v>
       </c>
       <c r="E134">
-        <v>69280</v>
+        <v>68410</v>
       </c>
       <c r="F134">
-        <v>69380</v>
+        <v>68430</v>
       </c>
       <c r="G134">
-        <v>2348</v>
+        <v>42299</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>20231028</v>
+        <v>20231219</v>
       </c>
       <c r="B135">
-        <v>2312</v>
+        <v>202402</v>
       </c>
       <c r="C135">
-        <v>67260</v>
+        <v>68290</v>
       </c>
       <c r="D135">
-        <v>67270</v>
+        <v>69180</v>
       </c>
       <c r="E135">
-        <v>67100</v>
+        <v>68230</v>
       </c>
       <c r="F135">
-        <v>67210</v>
+        <v>68930</v>
       </c>
       <c r="G135">
-        <v>2304</v>
+        <v>56862</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>20230819</v>
+        <v>20231220</v>
       </c>
       <c r="B136">
-        <v>2309</v>
+        <v>202402</v>
       </c>
       <c r="C136">
-        <v>68210</v>
+        <v>68930</v>
       </c>
       <c r="D136">
-        <v>68310</v>
+        <v>69020</v>
       </c>
       <c r="E136">
-        <v>68170</v>
+        <v>68610</v>
       </c>
       <c r="F136">
-        <v>68230</v>
+        <v>68760</v>
       </c>
       <c r="G136">
-        <v>1831</v>
+        <v>63100</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>20230826</v>
+        <v>20231221</v>
       </c>
       <c r="B137">
-        <v>2310</v>
+        <v>202402</v>
       </c>
       <c r="C137">
-        <v>68720</v>
+        <v>68760</v>
       </c>
       <c r="D137">
-        <v>68810</v>
+        <v>69100</v>
       </c>
       <c r="E137">
-        <v>68710</v>
+        <v>68650</v>
       </c>
       <c r="F137">
-        <v>68770</v>
+        <v>68910</v>
       </c>
       <c r="G137">
-        <v>1658</v>
+        <v>64513</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>20231014</v>
+        <v>20231222</v>
       </c>
       <c r="B138">
-        <v>2311</v>
+        <v>202402</v>
       </c>
       <c r="C138">
-        <v>66130</v>
+        <v>68910</v>
       </c>
       <c r="D138">
-        <v>66200</v>
+        <v>69290</v>
       </c>
       <c r="E138">
-        <v>66080</v>
+        <v>68880</v>
       </c>
       <c r="F138">
-        <v>66180</v>
+        <v>69010</v>
       </c>
       <c r="G138">
-        <v>1657</v>
+        <v>63595</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>20230805</v>
+        <v>20231223</v>
       </c>
       <c r="B139">
-        <v>2309</v>
+        <v>202402</v>
       </c>
       <c r="C139">
-        <v>69160</v>
+        <v>69010</v>
       </c>
       <c r="D139">
-        <v>69180</v>
+        <v>69100</v>
       </c>
       <c r="E139">
-        <v>69070</v>
+        <v>68920</v>
       </c>
       <c r="F139">
-        <v>69070</v>
+        <v>69080</v>
       </c>
       <c r="G139">
-        <v>1654</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>20230722</v>
+        <v>20231225</v>
       </c>
       <c r="B140">
-        <v>2309</v>
+        <v>202402</v>
       </c>
       <c r="C140">
-        <v>68190</v>
+        <v>69040</v>
       </c>
       <c r="D140">
-        <v>68240</v>
+        <v>69140</v>
       </c>
       <c r="E140">
-        <v>68150</v>
+        <v>68930</v>
       </c>
       <c r="F140">
-        <v>68230</v>
+        <v>69100</v>
       </c>
       <c r="G140">
-        <v>1489</v>
+        <v>31437</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>20231118</v>
+        <v>20231226</v>
       </c>
       <c r="B141">
-        <v>2312</v>
+        <v>202402</v>
       </c>
       <c r="C141">
-        <v>67840</v>
+        <v>69100</v>
       </c>
       <c r="D141">
-        <v>67880</v>
+        <v>69400</v>
       </c>
       <c r="E141">
-        <v>67790</v>
+        <v>68970</v>
       </c>
       <c r="F141">
-        <v>67860</v>
+        <v>69040</v>
       </c>
       <c r="G141">
-        <v>1487</v>
+        <v>64428</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>20230909</v>
+        <v>20231227</v>
       </c>
       <c r="B142">
-        <v>2310</v>
+        <v>202402</v>
       </c>
       <c r="C142">
-        <v>68530</v>
+        <v>69050</v>
       </c>
       <c r="D142">
-        <v>68590</v>
+        <v>69870</v>
       </c>
       <c r="E142">
-        <v>68510</v>
+        <v>68980</v>
       </c>
       <c r="F142">
-        <v>68590</v>
+        <v>69680</v>
       </c>
       <c r="G142">
-        <v>1453</v>
+        <v>62725</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>20230708</v>
+        <v>20231228</v>
       </c>
       <c r="B143">
-        <v>2308</v>
+        <v>202402</v>
       </c>
       <c r="C143">
-        <v>67920</v>
+        <v>69670</v>
       </c>
       <c r="D143">
-        <v>67960</v>
+        <v>69750</v>
       </c>
       <c r="E143">
-        <v>67880</v>
+        <v>68930</v>
       </c>
       <c r="F143">
-        <v>67940</v>
+        <v>69050</v>
       </c>
       <c r="G143">
-        <v>1395</v>
+        <v>61415</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>20230916</v>
+        <v>20231229</v>
       </c>
       <c r="B144">
-        <v>2310</v>
+        <v>202402</v>
       </c>
       <c r="C144">
-        <v>69260</v>
+        <v>69050</v>
       </c>
       <c r="D144">
-        <v>69320</v>
+        <v>69060</v>
       </c>
       <c r="E144">
-        <v>69250</v>
+        <v>68810</v>
       </c>
       <c r="F144">
-        <v>69320</v>
+        <v>68920</v>
       </c>
       <c r="G144">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145">
-        <v>20231217</v>
-      </c>
-      <c r="B145">
-        <v>2403</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146">
-        <v>20230820</v>
-      </c>
-      <c r="B146">
-        <v>2311</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147">
-        <v>20230730</v>
-      </c>
-      <c r="B147">
-        <v>2311</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148">
-        <v>20231224</v>
-      </c>
-      <c r="B148">
-        <v>2403</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149">
-        <v>20230917</v>
-      </c>
-      <c r="B149">
-        <v>2311</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150">
-        <v>20230806</v>
-      </c>
-      <c r="B150">
-        <v>2311</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151">
-        <v>20230827</v>
-      </c>
-      <c r="B151">
-        <v>2311</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152">
-        <v>20231029</v>
-      </c>
-      <c r="B152">
-        <v>2311</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153">
-        <v>20231126</v>
-      </c>
-      <c r="B153">
-        <v>2403</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154">
-        <v>20230903</v>
-      </c>
-      <c r="B154">
-        <v>2311</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155">
-        <v>20230709</v>
-      </c>
-      <c r="B155">
-        <v>2307</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156">
-        <v>20231105</v>
-      </c>
-      <c r="B156">
-        <v>2311</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157">
-        <v>20231022</v>
-      </c>
-      <c r="B157">
-        <v>2311</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158">
-        <v>20231015</v>
-      </c>
-      <c r="B158">
-        <v>2311</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159">
-        <v>20231203</v>
-      </c>
-      <c r="B159">
-        <v>2403</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160">
-        <v>20230930</v>
-      </c>
-      <c r="B160">
-        <v>2311</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161">
-        <v>20231001</v>
-      </c>
-      <c r="B161">
-        <v>2311</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162">
-        <v>20230929</v>
-      </c>
-      <c r="B162">
-        <v>2311</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163">
-        <v>20231002</v>
-      </c>
-      <c r="B163">
-        <v>2311</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164">
-        <v>20231003</v>
-      </c>
-      <c r="B164">
-        <v>2311</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165">
-        <v>20231004</v>
-      </c>
-      <c r="B165">
-        <v>2311</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166">
-        <v>20231005</v>
-      </c>
-      <c r="B166">
-        <v>2311</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167">
-        <v>20230924</v>
-      </c>
-      <c r="B167">
-        <v>2311</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168">
-        <v>20231210</v>
-      </c>
-      <c r="B168">
-        <v>2403</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169">
-        <v>20231006</v>
-      </c>
-      <c r="B169">
-        <v>2311</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170">
-        <v>20231007</v>
-      </c>
-      <c r="B170">
-        <v>2311</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171">
-        <v>20231008</v>
-      </c>
-      <c r="B171">
-        <v>2311</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172">
-        <v>20230716</v>
-      </c>
-      <c r="B172">
-        <v>2307</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173">
-        <v>20230813</v>
-      </c>
-      <c r="B173">
-        <v>2311</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174">
-        <v>20231112</v>
-      </c>
-      <c r="B174">
-        <v>2311</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175">
-        <v>20231119</v>
-      </c>
-      <c r="B175">
-        <v>2403</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176">
-        <v>20230910</v>
-      </c>
-      <c r="B176">
-        <v>2312</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177">
-        <v>20230723</v>
-      </c>
-      <c r="B177">
-        <v>2311</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
+        <v>36287</v>
       </c>
     </row>
   </sheetData>
@@ -4081,7 +3725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4112,276 +3756,531 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20230801</v>
+        <v>20230707</v>
       </c>
       <c r="B2">
-        <v>2309</v>
+        <v>202308</v>
+      </c>
+      <c r="C2">
+        <v>67610</v>
+      </c>
+      <c r="D2">
+        <v>68020</v>
+      </c>
+      <c r="E2">
+        <v>67580</v>
+      </c>
+      <c r="F2">
+        <v>67920</v>
+      </c>
+      <c r="G2">
+        <v>59693</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20230731</v>
+        <v>20230708</v>
       </c>
       <c r="B3">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C3">
-        <v>69470</v>
+        <v>67920</v>
       </c>
       <c r="D3">
-        <v>70600</v>
+        <v>67960</v>
       </c>
       <c r="E3">
-        <v>69340</v>
+        <v>67880</v>
       </c>
       <c r="F3">
-        <v>70500</v>
+        <v>67940</v>
       </c>
       <c r="G3">
-        <v>129718</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20230808</v>
+        <v>20230710</v>
       </c>
       <c r="B4">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C4">
-        <v>68740</v>
+        <v>67860</v>
       </c>
       <c r="D4">
-        <v>69030</v>
+        <v>68150</v>
       </c>
       <c r="E4">
-        <v>67770</v>
+        <v>67660</v>
       </c>
       <c r="F4">
-        <v>68100</v>
+        <v>68010</v>
       </c>
       <c r="G4">
-        <v>112831</v>
+        <v>67608</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20230802</v>
+        <v>20230711</v>
       </c>
       <c r="B5">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C5">
-        <v>69680</v>
+        <v>68010</v>
       </c>
       <c r="D5">
-        <v>69850</v>
+        <v>68340</v>
       </c>
       <c r="E5">
-        <v>68770</v>
+        <v>67520</v>
       </c>
       <c r="F5">
-        <v>68850</v>
+        <v>67640</v>
       </c>
       <c r="G5">
-        <v>105485</v>
+        <v>90917</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20231010</v>
+        <v>20230712</v>
       </c>
       <c r="B6">
-        <v>2311</v>
+        <v>202308</v>
+      </c>
+      <c r="C6">
+        <v>67650</v>
+      </c>
+      <c r="D6">
+        <v>68710</v>
+      </c>
+      <c r="E6">
+        <v>67620</v>
+      </c>
+      <c r="F6">
+        <v>68540</v>
+      </c>
+      <c r="G6">
+        <v>83254</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20231024</v>
+        <v>20230713</v>
       </c>
       <c r="B7">
-        <v>2312</v>
+        <v>202308</v>
+      </c>
+      <c r="C7">
+        <v>68540</v>
+      </c>
+      <c r="D7">
+        <v>69730</v>
+      </c>
+      <c r="E7">
+        <v>68410</v>
+      </c>
+      <c r="F7">
+        <v>69570</v>
+      </c>
+      <c r="G7">
+        <v>96575</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20230901</v>
+        <v>20230714</v>
       </c>
       <c r="B8">
-        <v>2310</v>
+        <v>202308</v>
+      </c>
+      <c r="C8">
+        <v>69580</v>
+      </c>
+      <c r="D8">
+        <v>69710</v>
+      </c>
+      <c r="E8">
+        <v>69200</v>
+      </c>
+      <c r="F8">
+        <v>69300</v>
+      </c>
+      <c r="G8">
+        <v>86040</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20230713</v>
+        <v>20230715</v>
       </c>
       <c r="B9">
-        <v>2308</v>
+        <v>202308</v>
+      </c>
+      <c r="C9">
+        <v>69300</v>
+      </c>
+      <c r="D9">
+        <v>69390</v>
+      </c>
+      <c r="E9">
+        <v>69280</v>
+      </c>
+      <c r="F9">
+        <v>69380</v>
+      </c>
+      <c r="G9">
+        <v>2348</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20230921</v>
+        <v>20230717</v>
       </c>
       <c r="B10">
-        <v>2311</v>
+        <v>202308</v>
+      </c>
+      <c r="C10">
+        <v>69300</v>
+      </c>
+      <c r="D10">
+        <v>69350</v>
+      </c>
+      <c r="E10">
+        <v>68130</v>
+      </c>
+      <c r="F10">
+        <v>68450</v>
+      </c>
+      <c r="G10">
+        <v>85957</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20230815</v>
+        <v>20230718</v>
       </c>
       <c r="B11">
-        <v>2309</v>
+        <v>202308</v>
+      </c>
+      <c r="C11">
+        <v>68450</v>
+      </c>
+      <c r="D11">
+        <v>68690</v>
+      </c>
+      <c r="E11">
+        <v>68270</v>
+      </c>
+      <c r="F11">
+        <v>68560</v>
+      </c>
+      <c r="G11">
+        <v>58979</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20230727</v>
+        <v>20230719</v>
       </c>
       <c r="B12">
-        <v>2309</v>
+        <v>202308</v>
       </c>
       <c r="C12">
-        <v>69080</v>
+        <v>68560</v>
       </c>
       <c r="D12">
-        <v>69470</v>
+        <v>68790</v>
       </c>
       <c r="E12">
-        <v>68700</v>
+        <v>68340</v>
       </c>
       <c r="F12">
-        <v>68870</v>
+        <v>68520</v>
       </c>
       <c r="G12">
-        <v>92172</v>
+        <v>59393</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20230711</v>
+        <v>20230720</v>
       </c>
       <c r="B13">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20230725</v>
-      </c>
-      <c r="B14">
-        <v>2309</v>
+        <v>202308</v>
+      </c>
+      <c r="C13">
+        <v>68520</v>
+      </c>
+      <c r="D13">
+        <v>68970</v>
+      </c>
+      <c r="E13">
+        <v>68410</v>
+      </c>
+      <c r="F13">
+        <v>68570</v>
+      </c>
+      <c r="G13">
+        <v>61093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1">
+      <c r="A14" s="2">
+        <v>20230721</v>
+      </c>
+      <c r="B14" s="2">
+        <v>202309</v>
+      </c>
+      <c r="C14" s="2">
+        <v>68430</v>
+      </c>
+      <c r="D14" s="2">
+        <v>68650</v>
+      </c>
+      <c r="E14" s="2">
+        <v>68080</v>
+      </c>
+      <c r="F14" s="2">
+        <v>68200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>56461</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20230804</v>
+        <v>20230722</v>
       </c>
       <c r="B15">
-        <v>2309</v>
+        <v>202309</v>
       </c>
       <c r="C15">
-        <v>69270</v>
+        <v>68190</v>
       </c>
       <c r="D15">
-        <v>69660</v>
+        <v>68240</v>
       </c>
       <c r="E15">
-        <v>68800</v>
+        <v>68150</v>
       </c>
       <c r="F15">
-        <v>69150</v>
+        <v>68230</v>
       </c>
       <c r="G15">
-        <v>87048</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20231023</v>
+        <v>20230724</v>
       </c>
       <c r="B16">
-        <v>2312</v>
+        <v>202309</v>
+      </c>
+      <c r="C16">
+        <v>68240</v>
+      </c>
+      <c r="D16">
+        <v>68770</v>
+      </c>
+      <c r="E16">
+        <v>68070</v>
+      </c>
+      <c r="F16">
+        <v>68740</v>
+      </c>
+      <c r="G16">
+        <v>65447</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20230714</v>
+        <v>20230725</v>
       </c>
       <c r="B17">
-        <v>2308</v>
+        <v>202309</v>
+      </c>
+      <c r="C17">
+        <v>68740</v>
+      </c>
+      <c r="D17">
+        <v>69380</v>
+      </c>
+      <c r="E17">
+        <v>68600</v>
+      </c>
+      <c r="F17">
+        <v>69260</v>
+      </c>
+      <c r="G17">
+        <v>89120</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20230717</v>
+        <v>20230726</v>
       </c>
       <c r="B18">
-        <v>2308</v>
+        <v>202309</v>
       </c>
       <c r="C18">
-        <v>69300</v>
+        <v>69280</v>
       </c>
       <c r="D18">
-        <v>69350</v>
+        <v>69280</v>
       </c>
       <c r="E18">
-        <v>68130</v>
+        <v>68820</v>
       </c>
       <c r="F18">
-        <v>68450</v>
+        <v>69080</v>
       </c>
       <c r="G18">
-        <v>85957</v>
+        <v>68800</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20231128</v>
+        <v>20230727</v>
       </c>
       <c r="B19">
-        <v>2401</v>
+        <v>202309</v>
+      </c>
+      <c r="C19">
+        <v>69080</v>
+      </c>
+      <c r="D19">
+        <v>69470</v>
+      </c>
+      <c r="E19">
+        <v>68700</v>
+      </c>
+      <c r="F19">
+        <v>68870</v>
+      </c>
+      <c r="G19">
+        <v>92172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20231009</v>
+        <v>20230728</v>
       </c>
       <c r="B20">
-        <v>2311</v>
+        <v>202309</v>
+      </c>
+      <c r="C20">
+        <v>68860</v>
+      </c>
+      <c r="D20">
+        <v>69400</v>
+      </c>
+      <c r="E20">
+        <v>68700</v>
+      </c>
+      <c r="F20">
+        <v>69400</v>
+      </c>
+      <c r="G20">
+        <v>76891</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20231027</v>
+        <v>20230729</v>
       </c>
       <c r="B21">
-        <v>2312</v>
+        <v>202309</v>
+      </c>
+      <c r="C21">
+        <v>69400</v>
+      </c>
+      <c r="D21">
+        <v>69500</v>
+      </c>
+      <c r="E21">
+        <v>69340</v>
+      </c>
+      <c r="F21">
+        <v>69400</v>
+      </c>
+      <c r="G21">
+        <v>8073</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20230712</v>
+        <v>20230731</v>
       </c>
       <c r="B22">
-        <v>2308</v>
+        <v>202309</v>
+      </c>
+      <c r="C22">
+        <v>69470</v>
+      </c>
+      <c r="D22">
+        <v>70600</v>
+      </c>
+      <c r="E22">
+        <v>69340</v>
+      </c>
+      <c r="F22">
+        <v>70500</v>
+      </c>
+      <c r="G22">
+        <v>129718</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20230816</v>
+        <v>20230801</v>
       </c>
       <c r="B23">
-        <v>2309</v>
+        <v>202309</v>
+      </c>
+      <c r="C23">
+        <v>70500</v>
+      </c>
+      <c r="D23">
+        <v>70940</v>
+      </c>
+      <c r="E23">
+        <v>69630</v>
+      </c>
+      <c r="F23">
+        <v>69680</v>
+      </c>
+      <c r="G23">
+        <v>138837</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>20230926</v>
+        <v>20230802</v>
       </c>
       <c r="B24">
-        <v>2311</v>
+        <v>202309</v>
+      </c>
+      <c r="C24">
+        <v>69680</v>
+      </c>
+      <c r="D24">
+        <v>69850</v>
+      </c>
+      <c r="E24">
+        <v>68770</v>
+      </c>
+      <c r="F24">
+        <v>68850</v>
+      </c>
+      <c r="G24">
+        <v>105485</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4389,70 +4288,160 @@
         <v>20230803</v>
       </c>
       <c r="B25">
-        <v>2309</v>
+        <v>202309</v>
+      </c>
+      <c r="C25">
+        <v>68840</v>
+      </c>
+      <c r="D25">
+        <v>69340</v>
+      </c>
+      <c r="E25">
+        <v>68800</v>
+      </c>
+      <c r="F25">
+        <v>69260</v>
+      </c>
+      <c r="G25">
+        <v>81023</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>20230828</v>
+        <v>20230804</v>
       </c>
       <c r="B26">
-        <v>2310</v>
+        <v>202309</v>
+      </c>
+      <c r="C26">
+        <v>69270</v>
+      </c>
+      <c r="D26">
+        <v>69660</v>
+      </c>
+      <c r="E26">
+        <v>68800</v>
+      </c>
+      <c r="F26">
+        <v>69150</v>
+      </c>
+      <c r="G26">
+        <v>87048</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>20230810</v>
+        <v>20230805</v>
       </c>
       <c r="B27">
-        <v>2309</v>
+        <v>202309</v>
+      </c>
+      <c r="C27">
+        <v>69160</v>
+      </c>
+      <c r="D27">
+        <v>69180</v>
+      </c>
+      <c r="E27">
+        <v>69070</v>
+      </c>
+      <c r="F27">
+        <v>69070</v>
+      </c>
+      <c r="G27">
+        <v>1654</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>20230915</v>
+        <v>20230807</v>
       </c>
       <c r="B28">
-        <v>2310</v>
+        <v>202309</v>
+      </c>
+      <c r="C28">
+        <v>69000</v>
+      </c>
+      <c r="D28">
+        <v>69230</v>
+      </c>
+      <c r="E28">
+        <v>68720</v>
+      </c>
+      <c r="F28">
+        <v>68750</v>
+      </c>
+      <c r="G28">
+        <v>65054</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>20231013</v>
+        <v>20230808</v>
       </c>
       <c r="B29">
-        <v>2311</v>
+        <v>202309</v>
+      </c>
+      <c r="C29">
+        <v>68740</v>
+      </c>
+      <c r="D29">
+        <v>69030</v>
+      </c>
+      <c r="E29">
+        <v>67770</v>
+      </c>
+      <c r="F29">
+        <v>68100</v>
+      </c>
+      <c r="G29">
+        <v>112831</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>20231205</v>
+        <v>20230809</v>
       </c>
       <c r="B30">
-        <v>2401</v>
+        <v>202309</v>
+      </c>
+      <c r="C30">
+        <v>68100</v>
+      </c>
+      <c r="D30">
+        <v>68730</v>
+      </c>
+      <c r="E30">
+        <v>68090</v>
+      </c>
+      <c r="F30">
+        <v>68390</v>
+      </c>
+      <c r="G30">
+        <v>74309</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>20231201</v>
+        <v>20230810</v>
       </c>
       <c r="B31">
-        <v>2401</v>
+        <v>202309</v>
       </c>
       <c r="C31">
+        <v>68380</v>
+      </c>
+      <c r="D31">
+        <v>68850</v>
+      </c>
+      <c r="E31">
         <v>68320</v>
       </c>
-      <c r="D31">
-        <v>68960</v>
-      </c>
-      <c r="E31">
-        <v>68210</v>
-      </c>
       <c r="F31">
-        <v>68940</v>
+        <v>68410</v>
       </c>
       <c r="G31">
-        <v>80183</v>
+        <v>80627</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4460,1485 +4449,2598 @@
         <v>20230811</v>
       </c>
       <c r="B32">
-        <v>2309</v>
+        <v>202309</v>
+      </c>
+      <c r="C32">
+        <v>68410</v>
+      </c>
+      <c r="D32">
+        <v>68450</v>
+      </c>
+      <c r="E32">
+        <v>67810</v>
+      </c>
+      <c r="F32">
+        <v>68020</v>
+      </c>
+      <c r="G32">
+        <v>80066</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>20231011</v>
+        <v>20230812</v>
       </c>
       <c r="B33">
-        <v>2311</v>
+        <v>202309</v>
+      </c>
+      <c r="C33">
+        <v>68020</v>
+      </c>
+      <c r="D33">
+        <v>68110</v>
+      </c>
+      <c r="E33">
+        <v>68010</v>
+      </c>
+      <c r="F33">
+        <v>68080</v>
+      </c>
+      <c r="G33">
+        <v>2454</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>20231017</v>
+        <v>20230814</v>
       </c>
       <c r="B34">
-        <v>2311</v>
+        <v>202309</v>
       </c>
       <c r="C34">
-        <v>66250</v>
+        <v>68020</v>
       </c>
       <c r="D34">
-        <v>66450</v>
+        <v>68220</v>
       </c>
       <c r="E34">
-        <v>65850</v>
+        <v>67850</v>
       </c>
       <c r="F34">
-        <v>66360</v>
+        <v>68150</v>
       </c>
       <c r="G34">
-        <v>78429</v>
+        <v>69600</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>20230919</v>
+        <v>20230815</v>
       </c>
       <c r="B35">
-        <v>2310</v>
+        <v>202309</v>
+      </c>
+      <c r="C35">
+        <v>68160</v>
+      </c>
+      <c r="D35">
+        <v>68680</v>
+      </c>
+      <c r="E35">
+        <v>67770</v>
+      </c>
+      <c r="F35">
+        <v>67830</v>
+      </c>
+      <c r="G35">
+        <v>95049</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>20230728</v>
+        <v>20230816</v>
       </c>
       <c r="B36">
-        <v>2309</v>
+        <v>202309</v>
+      </c>
+      <c r="C36">
+        <v>67830</v>
+      </c>
+      <c r="D36">
+        <v>68100</v>
+      </c>
+      <c r="E36">
+        <v>67550</v>
+      </c>
+      <c r="F36">
+        <v>67840</v>
+      </c>
+      <c r="G36">
+        <v>82053</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>20230914</v>
+        <v>20230817</v>
       </c>
       <c r="B37">
-        <v>2310</v>
+        <v>202309</v>
+      </c>
+      <c r="C37">
+        <v>67840</v>
+      </c>
+      <c r="D37">
+        <v>68550</v>
+      </c>
+      <c r="E37">
+        <v>67560</v>
+      </c>
+      <c r="F37">
+        <v>68170</v>
+      </c>
+      <c r="G37">
+        <v>70203</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>20230829</v>
+        <v>20230818</v>
       </c>
       <c r="B38">
-        <v>2310</v>
+        <v>202309</v>
       </c>
       <c r="C38">
-        <v>68950</v>
+        <v>68180</v>
       </c>
       <c r="D38">
-        <v>69460</v>
+        <v>68440</v>
       </c>
       <c r="E38">
-        <v>68910</v>
+        <v>67970</v>
       </c>
       <c r="F38">
-        <v>69430</v>
+        <v>68210</v>
       </c>
       <c r="G38">
-        <v>76318</v>
+        <v>53776</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>20231214</v>
+        <v>20230819</v>
       </c>
       <c r="B39">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>20230809</v>
-      </c>
-      <c r="B40">
-        <v>2309</v>
+        <v>202309</v>
+      </c>
+      <c r="C39">
+        <v>68210</v>
+      </c>
+      <c r="D39">
+        <v>68310</v>
+      </c>
+      <c r="E39">
+        <v>68170</v>
+      </c>
+      <c r="F39">
+        <v>68230</v>
+      </c>
+      <c r="G39">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1">
+      <c r="A40" s="2">
+        <v>20230821</v>
+      </c>
+      <c r="B40" s="2">
+        <v>202310</v>
+      </c>
+      <c r="C40" s="2">
+        <v>68190</v>
+      </c>
+      <c r="D40" s="2">
+        <v>68450</v>
+      </c>
+      <c r="E40" s="2">
+        <v>68140</v>
+      </c>
+      <c r="F40" s="2">
+        <v>68260</v>
+      </c>
+      <c r="G40" s="2">
+        <v>50326</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>20230905</v>
+        <v>20230822</v>
       </c>
       <c r="B41">
-        <v>2310</v>
+        <v>202310</v>
+      </c>
+      <c r="C41">
+        <v>68260</v>
+      </c>
+      <c r="D41">
+        <v>68900</v>
+      </c>
+      <c r="E41">
+        <v>68200</v>
+      </c>
+      <c r="F41">
+        <v>68810</v>
+      </c>
+      <c r="G41">
+        <v>57642</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>20231103</v>
+        <v>20230823</v>
       </c>
       <c r="B42">
-        <v>2312</v>
+        <v>202310</v>
+      </c>
+      <c r="C42">
+        <v>68800</v>
+      </c>
+      <c r="D42">
+        <v>69250</v>
+      </c>
+      <c r="E42">
+        <v>68760</v>
+      </c>
+      <c r="F42">
+        <v>69200</v>
+      </c>
+      <c r="G42">
+        <v>70202</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>20231025</v>
+        <v>20230824</v>
       </c>
       <c r="B43">
-        <v>2312</v>
+        <v>202310</v>
       </c>
       <c r="C43">
-        <v>66860</v>
+        <v>69190</v>
       </c>
       <c r="D43">
-        <v>67100</v>
+        <v>69320</v>
       </c>
       <c r="E43">
-        <v>66590</v>
+        <v>68710</v>
       </c>
       <c r="F43">
-        <v>66720</v>
+        <v>68750</v>
       </c>
       <c r="G43">
-        <v>73154</v>
+        <v>67754</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>20230907</v>
+        <v>20230825</v>
       </c>
       <c r="B44">
-        <v>2310</v>
+        <v>202310</v>
+      </c>
+      <c r="C44">
+        <v>68740</v>
+      </c>
+      <c r="D44">
+        <v>69040</v>
+      </c>
+      <c r="E44">
+        <v>68600</v>
+      </c>
+      <c r="F44">
+        <v>68730</v>
+      </c>
+      <c r="G44">
+        <v>66535</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>20231130</v>
+        <v>20230826</v>
       </c>
       <c r="B45">
-        <v>2401</v>
+        <v>202310</v>
+      </c>
+      <c r="C45">
+        <v>68720</v>
+      </c>
+      <c r="D45">
+        <v>68810</v>
+      </c>
+      <c r="E45">
+        <v>68710</v>
+      </c>
+      <c r="F45">
+        <v>68770</v>
+      </c>
+      <c r="G45">
+        <v>1658</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>20231121</v>
+        <v>20230828</v>
       </c>
       <c r="B46">
-        <v>2401</v>
+        <v>202310</v>
       </c>
       <c r="C46">
-        <v>68050</v>
+        <v>68930</v>
       </c>
       <c r="D46">
-        <v>68350</v>
+        <v>69390</v>
       </c>
       <c r="E46">
-        <v>67880</v>
+        <v>68700</v>
       </c>
       <c r="F46">
-        <v>68140</v>
+        <v>68940</v>
       </c>
       <c r="G46">
-        <v>71519</v>
+        <v>80659</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>20231012</v>
+        <v>20230829</v>
       </c>
       <c r="B47">
-        <v>2311</v>
+        <v>202310</v>
+      </c>
+      <c r="C47">
+        <v>68950</v>
+      </c>
+      <c r="D47">
+        <v>69460</v>
+      </c>
+      <c r="E47">
+        <v>68910</v>
+      </c>
+      <c r="F47">
+        <v>69430</v>
+      </c>
+      <c r="G47">
+        <v>76318</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>20231207</v>
+        <v>20230830</v>
       </c>
       <c r="B48">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C48">
+        <v>69420</v>
+      </c>
+      <c r="D48">
+        <v>69640</v>
+      </c>
+      <c r="E48">
+        <v>69240</v>
+      </c>
+      <c r="F48">
+        <v>69620</v>
+      </c>
+      <c r="G48">
+        <v>66101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
-        <v>20231030</v>
+        <v>20230831</v>
       </c>
       <c r="B49">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C49">
+        <v>69620</v>
+      </c>
+      <c r="D49">
+        <v>69640</v>
+      </c>
+      <c r="E49">
+        <v>69110</v>
+      </c>
+      <c r="F49">
+        <v>69230</v>
+      </c>
+      <c r="G49">
+        <v>65921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
-        <v>20230817</v>
+        <v>20230901</v>
       </c>
       <c r="B50">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C50">
+        <v>69240</v>
+      </c>
+      <c r="D50">
+        <v>70210</v>
+      </c>
+      <c r="E50">
+        <v>69180</v>
+      </c>
+      <c r="F50">
+        <v>69680</v>
+      </c>
+      <c r="G50">
+        <v>97482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
-        <v>20230823</v>
+        <v>20230902</v>
       </c>
       <c r="B51">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C51">
+        <v>69680</v>
+      </c>
+      <c r="D51">
+        <v>69690</v>
+      </c>
+      <c r="E51">
+        <v>69540</v>
+      </c>
+      <c r="F51">
+        <v>69570</v>
+      </c>
+      <c r="G51">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
-        <v>20230925</v>
+        <v>20230904</v>
       </c>
       <c r="B52">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C52">
+        <v>69620</v>
+      </c>
+      <c r="D52">
+        <v>69780</v>
+      </c>
+      <c r="E52">
+        <v>69150</v>
+      </c>
+      <c r="F52">
+        <v>69350</v>
+      </c>
+      <c r="G52">
+        <v>67538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
+        <v>20230905</v>
+      </c>
+      <c r="B53">
+        <v>202310</v>
+      </c>
+      <c r="C53">
+        <v>69360</v>
+      </c>
+      <c r="D53">
+        <v>69710</v>
+      </c>
+      <c r="E53">
+        <v>69010</v>
+      </c>
+      <c r="F53">
+        <v>69680</v>
+      </c>
+      <c r="G53">
+        <v>73440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>20230906</v>
+      </c>
+      <c r="B54">
+        <v>202310</v>
+      </c>
+      <c r="C54">
+        <v>69670</v>
+      </c>
+      <c r="D54">
+        <v>69740</v>
+      </c>
+      <c r="E54">
+        <v>69030</v>
+      </c>
+      <c r="F54">
+        <v>69070</v>
+      </c>
+      <c r="G54">
+        <v>64412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>20230907</v>
+      </c>
+      <c r="B55">
+        <v>202310</v>
+      </c>
+      <c r="C55">
+        <v>69060</v>
+      </c>
+      <c r="D55">
+        <v>69230</v>
+      </c>
+      <c r="E55">
+        <v>68740</v>
+      </c>
+      <c r="F55">
+        <v>68970</v>
+      </c>
+      <c r="G55">
+        <v>72311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>20230908</v>
+      </c>
+      <c r="B56">
+        <v>202310</v>
+      </c>
+      <c r="C56">
+        <v>68970</v>
+      </c>
+      <c r="D56">
+        <v>68980</v>
+      </c>
+      <c r="E56">
+        <v>68410</v>
+      </c>
+      <c r="F56">
+        <v>68540</v>
+      </c>
+      <c r="G56">
+        <v>63939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>20230909</v>
+      </c>
+      <c r="B57">
+        <v>202310</v>
+      </c>
+      <c r="C57">
+        <v>68530</v>
+      </c>
+      <c r="D57">
+        <v>68590</v>
+      </c>
+      <c r="E57">
+        <v>68510</v>
+      </c>
+      <c r="F57">
+        <v>68590</v>
+      </c>
+      <c r="G57">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
         <v>20230911</v>
       </c>
-      <c r="B53">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>20230814</v>
-      </c>
-      <c r="B54">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>20231208</v>
-      </c>
-      <c r="B55">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>20230726</v>
-      </c>
-      <c r="B56">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>20230824</v>
-      </c>
-      <c r="B57">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>20230710</v>
-      </c>
       <c r="B58">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C58">
+        <v>68530</v>
+      </c>
+      <c r="D58">
+        <v>69500</v>
+      </c>
+      <c r="E58">
+        <v>68530</v>
+      </c>
+      <c r="F58">
+        <v>69350</v>
+      </c>
+      <c r="G58">
+        <v>69607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
-        <v>20230904</v>
+        <v>20230912</v>
       </c>
       <c r="B59">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C59">
+        <v>69360</v>
+      </c>
+      <c r="D59">
+        <v>69450</v>
+      </c>
+      <c r="E59">
+        <v>69010</v>
+      </c>
+      <c r="F59">
+        <v>69210</v>
+      </c>
+      <c r="G59">
+        <v>54137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
-        <v>20231109</v>
+        <v>20230913</v>
       </c>
       <c r="B60">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C60">
+        <v>69220</v>
+      </c>
+      <c r="D60">
+        <v>69360</v>
+      </c>
+      <c r="E60">
+        <v>69000</v>
+      </c>
+      <c r="F60">
+        <v>69240</v>
+      </c>
+      <c r="G60">
+        <v>56725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
-        <v>20231122</v>
+        <v>20230914</v>
       </c>
       <c r="B61">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C61">
+        <v>69250</v>
+      </c>
+      <c r="D61">
+        <v>69620</v>
+      </c>
+      <c r="E61">
+        <v>69020</v>
+      </c>
+      <c r="F61">
+        <v>69490</v>
+      </c>
+      <c r="G61">
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
-        <v>20230825</v>
+        <v>20230915</v>
       </c>
       <c r="B62">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C62">
+        <v>69500</v>
+      </c>
+      <c r="D62">
+        <v>69920</v>
+      </c>
+      <c r="E62">
+        <v>69210</v>
+      </c>
+      <c r="F62">
+        <v>69250</v>
+      </c>
+      <c r="G62">
+        <v>80595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
-        <v>20230922</v>
+        <v>20230916</v>
       </c>
       <c r="B63">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>202310</v>
+      </c>
+      <c r="C63">
+        <v>69260</v>
+      </c>
+      <c r="D63">
+        <v>69320</v>
+      </c>
+      <c r="E63">
+        <v>69250</v>
+      </c>
+      <c r="F63">
+        <v>69320</v>
+      </c>
+      <c r="G63">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
-        <v>20231110</v>
+        <v>20230918</v>
       </c>
       <c r="B64">
-        <v>2312</v>
+        <v>202310</v>
+      </c>
+      <c r="C64">
+        <v>69330</v>
+      </c>
+      <c r="D64">
+        <v>69470</v>
+      </c>
+      <c r="E64">
+        <v>68950</v>
+      </c>
+      <c r="F64">
+        <v>69040</v>
+      </c>
+      <c r="G64">
+        <v>61923</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>20230830</v>
+        <v>20230919</v>
       </c>
       <c r="B65">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66">
-        <v>20230831</v>
-      </c>
-      <c r="B66">
-        <v>2310</v>
-      </c>
-      <c r="C66">
-        <v>69620</v>
-      </c>
-      <c r="D66">
-        <v>69640</v>
-      </c>
-      <c r="E66">
-        <v>69110</v>
-      </c>
-      <c r="F66">
-        <v>69230</v>
-      </c>
-      <c r="G66">
-        <v>65921</v>
+        <v>202310</v>
+      </c>
+      <c r="C65">
+        <v>69040</v>
+      </c>
+      <c r="D65">
+        <v>69150</v>
+      </c>
+      <c r="E65">
+        <v>68600</v>
+      </c>
+      <c r="F65">
+        <v>68640</v>
+      </c>
+      <c r="G65">
+        <v>78186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1">
+      <c r="A66" s="2">
+        <v>20230920</v>
+      </c>
+      <c r="B66" s="2">
+        <v>202311</v>
+      </c>
+      <c r="C66" s="2">
+        <v>68450</v>
+      </c>
+      <c r="D66" s="2">
+        <v>68950</v>
+      </c>
+      <c r="E66" s="2">
+        <v>68440</v>
+      </c>
+      <c r="F66" s="2">
+        <v>68740</v>
+      </c>
+      <c r="G66" s="2">
+        <v>45502</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>20230724</v>
+        <v>20230921</v>
       </c>
       <c r="B67">
-        <v>2309</v>
+        <v>202311</v>
+      </c>
+      <c r="C67">
+        <v>68750</v>
+      </c>
+      <c r="D67">
+        <v>68800</v>
+      </c>
+      <c r="E67">
+        <v>67330</v>
+      </c>
+      <c r="F67">
+        <v>67780</v>
+      </c>
+      <c r="G67">
+        <v>95254</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>20231114</v>
+        <v>20230922</v>
       </c>
       <c r="B68">
-        <v>2312</v>
+        <v>202311</v>
+      </c>
+      <c r="C68">
+        <v>67780</v>
+      </c>
+      <c r="D68">
+        <v>68170</v>
+      </c>
+      <c r="E68">
+        <v>67720</v>
+      </c>
+      <c r="F68">
+        <v>67880</v>
+      </c>
+      <c r="G68">
+        <v>66169</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>20230807</v>
+        <v>20230923</v>
       </c>
       <c r="B69">
-        <v>2309</v>
+        <v>202311</v>
+      </c>
+      <c r="C69">
+        <v>67880</v>
+      </c>
+      <c r="D69">
+        <v>67890</v>
+      </c>
+      <c r="E69">
+        <v>67770</v>
+      </c>
+      <c r="F69">
+        <v>67850</v>
+      </c>
+      <c r="G69">
+        <v>2977</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>20231020</v>
+        <v>20230925</v>
       </c>
       <c r="B70">
-        <v>2312</v>
+        <v>202311</v>
+      </c>
+      <c r="C70">
+        <v>67850</v>
+      </c>
+      <c r="D70">
+        <v>67940</v>
+      </c>
+      <c r="E70">
+        <v>67410</v>
+      </c>
+      <c r="F70">
+        <v>67500</v>
+      </c>
+      <c r="G70">
+        <v>69807</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>20231221</v>
+        <v>20230926</v>
       </c>
       <c r="B71">
-        <v>2402</v>
+        <v>202311</v>
+      </c>
+      <c r="C71">
+        <v>67490</v>
+      </c>
+      <c r="D71">
+        <v>67700</v>
+      </c>
+      <c r="E71">
+        <v>67050</v>
+      </c>
+      <c r="F71">
+        <v>67080</v>
+      </c>
+      <c r="G71">
+        <v>81706</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>20231226</v>
+        <v>20230927</v>
       </c>
       <c r="B72">
-        <v>2402</v>
+        <v>202311</v>
       </c>
       <c r="C72">
-        <v>69100</v>
+        <v>67080</v>
       </c>
       <c r="D72">
-        <v>69400</v>
+        <v>67350</v>
       </c>
       <c r="E72">
-        <v>68970</v>
+        <v>66980</v>
       </c>
       <c r="F72">
-        <v>69040</v>
+        <v>67240</v>
       </c>
       <c r="G72">
-        <v>64428</v>
+        <v>61584</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>20230906</v>
+        <v>20230928</v>
       </c>
       <c r="B73">
-        <v>2310</v>
+        <v>202311</v>
+      </c>
+      <c r="C73">
+        <v>67240</v>
+      </c>
+      <c r="D73">
+        <v>67380</v>
+      </c>
+      <c r="E73">
+        <v>67000</v>
+      </c>
+      <c r="F73">
+        <v>67240</v>
+      </c>
+      <c r="G73">
+        <v>43115</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>20231018</v>
+        <v>20231009</v>
       </c>
       <c r="B74">
-        <v>2311</v>
+        <v>202311</v>
+      </c>
+      <c r="C74">
+        <v>67130</v>
+      </c>
+      <c r="D74">
+        <v>67470</v>
+      </c>
+      <c r="E74">
+        <v>67030</v>
+      </c>
+      <c r="F74">
+        <v>67170</v>
+      </c>
+      <c r="G74">
+        <v>83897</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>20230908</v>
+        <v>20231010</v>
       </c>
       <c r="B75">
-        <v>2310</v>
+        <v>202311</v>
+      </c>
+      <c r="C75">
+        <v>67170</v>
+      </c>
+      <c r="D75">
+        <v>67300</v>
+      </c>
+      <c r="E75">
+        <v>66190</v>
+      </c>
+      <c r="F75">
+        <v>66590</v>
+      </c>
+      <c r="G75">
+        <v>102125</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>20231222</v>
+        <v>20231011</v>
       </c>
       <c r="B76">
-        <v>2402</v>
+        <v>202311</v>
+      </c>
+      <c r="C76">
+        <v>66600</v>
+      </c>
+      <c r="D76">
+        <v>66950</v>
+      </c>
+      <c r="E76">
+        <v>66550</v>
+      </c>
+      <c r="F76">
+        <v>66580</v>
+      </c>
+      <c r="G76">
+        <v>78951</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>20231220</v>
+        <v>20231012</v>
       </c>
       <c r="B77">
-        <v>2402</v>
+        <v>202311</v>
       </c>
       <c r="C77">
-        <v>68930</v>
+        <v>66580</v>
       </c>
       <c r="D77">
-        <v>69020</v>
+        <v>66980</v>
       </c>
       <c r="E77">
-        <v>68610</v>
+        <v>66310</v>
       </c>
       <c r="F77">
-        <v>68760</v>
+        <v>66410</v>
       </c>
       <c r="G77">
-        <v>63100</v>
+        <v>71318</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>20230721</v>
+        <v>20231013</v>
       </c>
       <c r="B78">
-        <v>2308</v>
+        <v>202311</v>
+      </c>
+      <c r="C78">
+        <v>66420</v>
+      </c>
+      <c r="D78">
+        <v>66530</v>
+      </c>
+      <c r="E78">
+        <v>65890</v>
+      </c>
+      <c r="F78">
+        <v>66130</v>
+      </c>
+      <c r="G78">
+        <v>80483</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>20231227</v>
+        <v>20231014</v>
       </c>
       <c r="B79">
-        <v>2402</v>
+        <v>202311</v>
+      </c>
+      <c r="C79">
+        <v>66130</v>
+      </c>
+      <c r="D79">
+        <v>66200</v>
+      </c>
+      <c r="E79">
+        <v>66080</v>
+      </c>
+      <c r="F79">
+        <v>66180</v>
+      </c>
+      <c r="G79">
+        <v>1657</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>20231031</v>
+        <v>20231016</v>
       </c>
       <c r="B80">
-        <v>2312</v>
+        <v>202311</v>
+      </c>
+      <c r="C80">
+        <v>66180</v>
+      </c>
+      <c r="D80">
+        <v>66650</v>
+      </c>
+      <c r="E80">
+        <v>66180</v>
+      </c>
+      <c r="F80">
+        <v>66250</v>
+      </c>
+      <c r="G80">
+        <v>59881</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>20231211</v>
+        <v>20231017</v>
       </c>
       <c r="B81">
-        <v>2401</v>
+        <v>202311</v>
+      </c>
+      <c r="C81">
+        <v>66250</v>
+      </c>
+      <c r="D81">
+        <v>66450</v>
+      </c>
+      <c r="E81">
+        <v>65850</v>
+      </c>
+      <c r="F81">
+        <v>66360</v>
+      </c>
+      <c r="G81">
+        <v>78429</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>20231204</v>
+        <v>20231018</v>
       </c>
       <c r="B82">
-        <v>2401</v>
+        <v>202311</v>
       </c>
       <c r="C82">
-        <v>69000</v>
+        <v>66360</v>
       </c>
       <c r="D82">
-        <v>69070</v>
+        <v>66890</v>
       </c>
       <c r="E82">
-        <v>68270</v>
+        <v>66310</v>
       </c>
       <c r="F82">
-        <v>68270</v>
+        <v>66480</v>
       </c>
       <c r="G82">
-        <v>62286</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83">
-        <v>20230918</v>
-      </c>
-      <c r="B83">
-        <v>2310</v>
+        <v>64306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="2" customFormat="1">
+      <c r="A83" s="2">
+        <v>20231019</v>
+      </c>
+      <c r="B83" s="2">
+        <v>202312</v>
+      </c>
+      <c r="C83" s="2">
+        <v>66410</v>
+      </c>
+      <c r="D83" s="2">
+        <v>66650</v>
+      </c>
+      <c r="E83" s="2">
+        <v>66150</v>
+      </c>
+      <c r="F83" s="2">
+        <v>66530</v>
+      </c>
+      <c r="G83" s="2">
+        <v>47781</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>20230927</v>
+        <v>20231020</v>
       </c>
       <c r="B84">
-        <v>2311</v>
+        <v>202312</v>
+      </c>
+      <c r="C84">
+        <v>66540</v>
+      </c>
+      <c r="D84">
+        <v>66680</v>
+      </c>
+      <c r="E84">
+        <v>65970</v>
+      </c>
+      <c r="F84">
+        <v>66180</v>
+      </c>
+      <c r="G84">
+        <v>64849</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>20231228</v>
+        <v>20231021</v>
       </c>
       <c r="B85">
-        <v>2402</v>
+        <v>202312</v>
+      </c>
+      <c r="C85">
+        <v>66170</v>
+      </c>
+      <c r="D85">
+        <v>66230</v>
+      </c>
+      <c r="E85">
+        <v>66090</v>
+      </c>
+      <c r="F85">
+        <v>66230</v>
+      </c>
+      <c r="G85">
+        <v>2658</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>20231113</v>
+        <v>20231023</v>
       </c>
       <c r="B86">
-        <v>2312</v>
+        <v>202312</v>
+      </c>
+      <c r="C86">
+        <v>66090</v>
+      </c>
+      <c r="D86">
+        <v>66260</v>
+      </c>
+      <c r="E86">
+        <v>65610</v>
+      </c>
+      <c r="F86">
+        <v>66250</v>
+      </c>
+      <c r="G86">
+        <v>86120</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>20230720</v>
+        <v>20231024</v>
       </c>
       <c r="B87">
-        <v>2308</v>
+        <v>202312</v>
+      </c>
+      <c r="C87">
+        <v>66240</v>
+      </c>
+      <c r="D87">
+        <v>66930</v>
+      </c>
+      <c r="E87">
+        <v>66070</v>
+      </c>
+      <c r="F87">
+        <v>66850</v>
+      </c>
+      <c r="G87">
+        <v>97955</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>20231026</v>
+        <v>20231025</v>
       </c>
       <c r="B88">
-        <v>2312</v>
+        <v>202312</v>
+      </c>
+      <c r="C88">
+        <v>66860</v>
+      </c>
+      <c r="D88">
+        <v>67100</v>
+      </c>
+      <c r="E88">
+        <v>66590</v>
+      </c>
+      <c r="F88">
+        <v>66720</v>
+      </c>
+      <c r="G88">
+        <v>73154</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>20231101</v>
+        <v>20231026</v>
       </c>
       <c r="B89">
-        <v>2312</v>
+        <v>202312</v>
       </c>
       <c r="C89">
-        <v>67330</v>
+        <v>66720</v>
       </c>
       <c r="D89">
-        <v>67700</v>
+        <v>66750</v>
       </c>
       <c r="E89">
-        <v>67080</v>
+        <v>66380</v>
       </c>
       <c r="F89">
-        <v>67460</v>
+        <v>66520</v>
       </c>
       <c r="G89">
-        <v>60559</v>
+        <v>60666</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>20231016</v>
+        <v>20231027</v>
       </c>
       <c r="B90">
-        <v>2311</v>
+        <v>202312</v>
+      </c>
+      <c r="C90">
+        <v>66510</v>
+      </c>
+      <c r="D90">
+        <v>67350</v>
+      </c>
+      <c r="E90">
+        <v>66390</v>
+      </c>
+      <c r="F90">
+        <v>67260</v>
+      </c>
+      <c r="G90">
+        <v>83354</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>20230707</v>
+        <v>20231028</v>
       </c>
       <c r="B91">
-        <v>2308</v>
+        <v>202312</v>
+      </c>
+      <c r="C91">
+        <v>67260</v>
+      </c>
+      <c r="D91">
+        <v>67270</v>
+      </c>
+      <c r="E91">
+        <v>67100</v>
+      </c>
+      <c r="F91">
+        <v>67210</v>
+      </c>
+      <c r="G91">
+        <v>2304</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>20230719</v>
+        <v>20231030</v>
       </c>
       <c r="B92">
-        <v>2308</v>
+        <v>202312</v>
       </c>
       <c r="C92">
-        <v>68560</v>
+        <v>67240</v>
       </c>
       <c r="D92">
-        <v>68790</v>
+        <v>67830</v>
       </c>
       <c r="E92">
-        <v>68340</v>
+        <v>67130</v>
       </c>
       <c r="F92">
-        <v>68520</v>
+        <v>67450</v>
       </c>
       <c r="G92">
-        <v>59393</v>
+        <v>70329</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>20231117</v>
+        <v>20231031</v>
       </c>
       <c r="B93">
-        <v>2312</v>
+        <v>202312</v>
+      </c>
+      <c r="C93">
+        <v>67440</v>
+      </c>
+      <c r="D93">
+        <v>67480</v>
+      </c>
+      <c r="E93">
+        <v>67120</v>
+      </c>
+      <c r="F93">
+        <v>67330</v>
+      </c>
+      <c r="G93">
+        <v>62704</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>20231127</v>
+        <v>20231101</v>
       </c>
       <c r="B94">
-        <v>2401</v>
+        <v>202312</v>
+      </c>
+      <c r="C94">
+        <v>67330</v>
+      </c>
+      <c r="D94">
+        <v>67700</v>
+      </c>
+      <c r="E94">
+        <v>67080</v>
+      </c>
+      <c r="F94">
+        <v>67460</v>
+      </c>
+      <c r="G94">
+        <v>60559</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>20230718</v>
+        <v>20231102</v>
       </c>
       <c r="B95">
-        <v>2308</v>
+        <v>202312</v>
+      </c>
+      <c r="C95">
+        <v>67460</v>
+      </c>
+      <c r="D95">
+        <v>67660</v>
+      </c>
+      <c r="E95">
+        <v>67310</v>
+      </c>
+      <c r="F95">
+        <v>67530</v>
+      </c>
+      <c r="G95">
+        <v>49604</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>20231129</v>
+        <v>20231103</v>
       </c>
       <c r="B96">
-        <v>2401</v>
+        <v>202312</v>
+      </c>
+      <c r="C96">
+        <v>67540</v>
+      </c>
+      <c r="D96">
+        <v>67880</v>
+      </c>
+      <c r="E96">
+        <v>67310</v>
+      </c>
+      <c r="F96">
+        <v>67470</v>
+      </c>
+      <c r="G96">
+        <v>73293</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>20230821</v>
+        <v>20231104</v>
       </c>
       <c r="B97">
-        <v>2309</v>
+        <v>202312</v>
+      </c>
+      <c r="C97">
+        <v>67480</v>
+      </c>
+      <c r="D97">
+        <v>67500</v>
+      </c>
+      <c r="E97">
+        <v>67350</v>
+      </c>
+      <c r="F97">
+        <v>67360</v>
+      </c>
+      <c r="G97">
+        <v>3666</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>20230822</v>
+        <v>20231106</v>
       </c>
       <c r="B98">
-        <v>2310</v>
+        <v>202312</v>
+      </c>
+      <c r="C98">
+        <v>67350</v>
+      </c>
+      <c r="D98">
+        <v>67830</v>
+      </c>
+      <c r="E98">
+        <v>67250</v>
+      </c>
+      <c r="F98">
+        <v>67670</v>
+      </c>
+      <c r="G98">
+        <v>52012</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>20231215</v>
+        <v>20231107</v>
       </c>
       <c r="B99">
-        <v>2401</v>
+        <v>202312</v>
+      </c>
+      <c r="C99">
+        <v>67680</v>
+      </c>
+      <c r="D99">
+        <v>67730</v>
+      </c>
+      <c r="E99">
+        <v>67100</v>
+      </c>
+      <c r="F99">
+        <v>67350</v>
+      </c>
+      <c r="G99">
+        <v>57099</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>20231107</v>
+        <v>20231108</v>
       </c>
       <c r="B100">
-        <v>2312</v>
+        <v>202312</v>
+      </c>
+      <c r="C100">
+        <v>67340</v>
+      </c>
+      <c r="D100">
+        <v>67550</v>
+      </c>
+      <c r="E100">
+        <v>67150</v>
+      </c>
+      <c r="F100">
+        <v>67150</v>
+      </c>
+      <c r="G100">
+        <v>50928</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>20231219</v>
+        <v>20231109</v>
       </c>
       <c r="B101">
-        <v>2402</v>
+        <v>202312</v>
+      </c>
+      <c r="C101">
+        <v>67160</v>
+      </c>
+      <c r="D101">
+        <v>67440</v>
+      </c>
+      <c r="E101">
+        <v>66980</v>
+      </c>
+      <c r="F101">
+        <v>67420</v>
+      </c>
+      <c r="G101">
+        <v>67521</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>20230913</v>
+        <v>20231110</v>
       </c>
       <c r="B102">
-        <v>2310</v>
+        <v>202312</v>
+      </c>
+      <c r="C102">
+        <v>67410</v>
+      </c>
+      <c r="D102">
+        <v>67450</v>
+      </c>
+      <c r="E102">
+        <v>66720</v>
+      </c>
+      <c r="F102">
+        <v>66770</v>
+      </c>
+      <c r="G102">
+        <v>66125</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>20231120</v>
+        <v>20231111</v>
       </c>
       <c r="B103">
-        <v>2312</v>
+        <v>202312</v>
+      </c>
+      <c r="C103">
+        <v>66760</v>
+      </c>
+      <c r="D103">
+        <v>66840</v>
+      </c>
+      <c r="E103">
+        <v>66750</v>
+      </c>
+      <c r="F103">
+        <v>66810</v>
+      </c>
+      <c r="G103">
+        <v>2810</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>20231115</v>
+        <v>20231113</v>
       </c>
       <c r="B104">
-        <v>2312</v>
+        <v>202312</v>
       </c>
       <c r="C104">
-        <v>67780</v>
+        <v>66810</v>
       </c>
       <c r="D104">
-        <v>67940</v>
+        <v>67480</v>
       </c>
       <c r="E104">
-        <v>67530</v>
+        <v>66810</v>
       </c>
       <c r="F104">
-        <v>67910</v>
+        <v>67440</v>
       </c>
       <c r="G104">
-        <v>54890</v>
+        <v>61239</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>20231206</v>
+        <v>20231114</v>
       </c>
       <c r="B105">
-        <v>2401</v>
+        <v>202312</v>
+      </c>
+      <c r="C105">
+        <v>67430</v>
+      </c>
+      <c r="D105">
+        <v>67910</v>
+      </c>
+      <c r="E105">
+        <v>67380</v>
+      </c>
+      <c r="F105">
+        <v>67790</v>
+      </c>
+      <c r="G105">
+        <v>65217</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>20231116</v>
+        <v>20231115</v>
       </c>
       <c r="B106">
-        <v>2312</v>
+        <v>202312</v>
+      </c>
+      <c r="C106">
+        <v>67780</v>
+      </c>
+      <c r="D106">
+        <v>67940</v>
+      </c>
+      <c r="E106">
+        <v>67530</v>
+      </c>
+      <c r="F106">
+        <v>67910</v>
+      </c>
+      <c r="G106">
+        <v>54890</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>20230912</v>
+        <v>20231116</v>
       </c>
       <c r="B107">
-        <v>2310</v>
+        <v>202312</v>
+      </c>
+      <c r="C107">
+        <v>67920</v>
+      </c>
+      <c r="D107">
+        <v>68020</v>
+      </c>
+      <c r="E107">
+        <v>67600</v>
+      </c>
+      <c r="F107">
+        <v>67670</v>
+      </c>
+      <c r="G107">
+        <v>54760</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>20230920</v>
+        <v>20231117</v>
       </c>
       <c r="B108">
-        <v>2310</v>
+        <v>202312</v>
       </c>
       <c r="C108">
-        <v>68640</v>
+        <v>67670</v>
       </c>
       <c r="D108">
-        <v>69110</v>
+        <v>67980</v>
       </c>
       <c r="E108">
-        <v>68620</v>
+        <v>67500</v>
       </c>
       <c r="F108">
-        <v>68900</v>
+        <v>67850</v>
       </c>
       <c r="G108">
-        <v>53895</v>
+        <v>59148</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>20230818</v>
+        <v>20231118</v>
       </c>
       <c r="B109">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110">
-        <v>20231123</v>
-      </c>
-      <c r="B110">
-        <v>2401</v>
+        <v>202312</v>
+      </c>
+      <c r="C109">
+        <v>67840</v>
+      </c>
+      <c r="D109">
+        <v>67880</v>
+      </c>
+      <c r="E109">
+        <v>67790</v>
+      </c>
+      <c r="F109">
+        <v>67860</v>
+      </c>
+      <c r="G109">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="2" customFormat="1">
+      <c r="A110" s="2">
+        <v>20231120</v>
+      </c>
+      <c r="B110" s="2">
+        <v>202401</v>
+      </c>
+      <c r="C110" s="2">
+        <v>67610</v>
+      </c>
+      <c r="D110" s="2">
+        <v>68060</v>
+      </c>
+      <c r="E110" s="2">
+        <v>67590</v>
+      </c>
+      <c r="F110" s="2">
+        <v>68050</v>
+      </c>
+      <c r="G110" s="2">
+        <v>49737</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>20231212</v>
+        <v>20231121</v>
       </c>
       <c r="B111">
-        <v>2401</v>
+        <v>202401</v>
       </c>
       <c r="C111">
-        <v>67990</v>
+        <v>68050</v>
       </c>
       <c r="D111">
-        <v>68180</v>
+        <v>68350</v>
       </c>
       <c r="E111">
-        <v>67740</v>
+        <v>67880</v>
       </c>
       <c r="F111">
-        <v>68020</v>
+        <v>68140</v>
       </c>
       <c r="G111">
-        <v>53167</v>
+        <v>71519</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>20231106</v>
+        <v>20231122</v>
       </c>
       <c r="B112">
-        <v>2312</v>
+        <v>202401</v>
+      </c>
+      <c r="C112">
+        <v>68140</v>
+      </c>
+      <c r="D112">
+        <v>68230</v>
+      </c>
+      <c r="E112">
+        <v>67550</v>
+      </c>
+      <c r="F112">
+        <v>67620</v>
+      </c>
+      <c r="G112">
+        <v>67268</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>20231019</v>
+        <v>20231123</v>
       </c>
       <c r="B113">
-        <v>2311</v>
+        <v>202401</v>
+      </c>
+      <c r="C113">
+        <v>67620</v>
+      </c>
+      <c r="D113">
+        <v>68100</v>
+      </c>
+      <c r="E113">
+        <v>67590</v>
+      </c>
+      <c r="F113">
+        <v>68090</v>
+      </c>
+      <c r="G113">
+        <v>53317</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>20231108</v>
+        <v>20231124</v>
       </c>
       <c r="B114">
-        <v>2312</v>
+        <v>202401</v>
+      </c>
+      <c r="C114">
+        <v>68090</v>
+      </c>
+      <c r="D114">
+        <v>68130</v>
+      </c>
+      <c r="E114">
+        <v>67730</v>
+      </c>
+      <c r="F114">
+        <v>68010</v>
+      </c>
+      <c r="G114">
+        <v>48021</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>20231102</v>
+        <v>20231125</v>
       </c>
       <c r="B115">
-        <v>2312</v>
+        <v>202401</v>
       </c>
       <c r="C115">
-        <v>67460</v>
+        <v>68020</v>
       </c>
       <c r="D115">
-        <v>67660</v>
+        <v>68110</v>
       </c>
       <c r="E115">
-        <v>67310</v>
+        <v>67970</v>
       </c>
       <c r="F115">
-        <v>67530</v>
+        <v>68010</v>
       </c>
       <c r="G115">
-        <v>49604</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>20231124</v>
+        <v>20231127</v>
       </c>
       <c r="B116">
-        <v>2401</v>
+        <v>202401</v>
+      </c>
+      <c r="C116">
+        <v>68030</v>
+      </c>
+      <c r="D116">
+        <v>68190</v>
+      </c>
+      <c r="E116">
+        <v>67750</v>
+      </c>
+      <c r="F116">
+        <v>67770</v>
+      </c>
+      <c r="G116">
+        <v>59139</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>20231213</v>
+        <v>20231128</v>
       </c>
       <c r="B117">
-        <v>2401</v>
+        <v>202401</v>
       </c>
       <c r="C117">
-        <v>68010</v>
+        <v>67760</v>
       </c>
       <c r="D117">
-        <v>68090</v>
+        <v>68390</v>
       </c>
       <c r="E117">
-        <v>67690</v>
+        <v>67650</v>
       </c>
       <c r="F117">
-        <v>67790</v>
+        <v>68290</v>
       </c>
       <c r="G117">
-        <v>46177</v>
+        <v>84382</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>20230928</v>
+        <v>20231129</v>
       </c>
       <c r="B118">
-        <v>2311</v>
+        <v>202401</v>
+      </c>
+      <c r="C118">
+        <v>68290</v>
+      </c>
+      <c r="D118">
+        <v>68360</v>
+      </c>
+      <c r="E118">
+        <v>68000</v>
+      </c>
+      <c r="F118">
+        <v>68110</v>
+      </c>
+      <c r="G118">
+        <v>58327</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>20231218</v>
+        <v>20231130</v>
       </c>
       <c r="B119">
-        <v>2401</v>
+        <v>202401</v>
+      </c>
+      <c r="C119">
+        <v>68120</v>
+      </c>
+      <c r="D119">
+        <v>68330</v>
+      </c>
+      <c r="E119">
+        <v>67900</v>
+      </c>
+      <c r="F119">
+        <v>68320</v>
+      </c>
+      <c r="G119">
+        <v>71654</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>20231229</v>
+        <v>20231201</v>
       </c>
       <c r="B120">
-        <v>2402</v>
+        <v>202401</v>
+      </c>
+      <c r="C120">
+        <v>68320</v>
+      </c>
+      <c r="D120">
+        <v>68960</v>
+      </c>
+      <c r="E120">
+        <v>68210</v>
+      </c>
+      <c r="F120">
+        <v>68940</v>
+      </c>
+      <c r="G120">
+        <v>80183</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>20231225</v>
+        <v>20231202</v>
       </c>
       <c r="B121">
-        <v>2402</v>
+        <v>202401</v>
       </c>
       <c r="C121">
-        <v>69040</v>
+        <v>68950</v>
       </c>
       <c r="D121">
-        <v>69140</v>
+        <v>69150</v>
       </c>
       <c r="E121">
-        <v>68930</v>
+        <v>68880</v>
       </c>
       <c r="F121">
-        <v>69100</v>
+        <v>68990</v>
       </c>
       <c r="G121">
-        <v>31437</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>20230729</v>
+        <v>20231204</v>
       </c>
       <c r="B122">
-        <v>2309</v>
+        <v>202401</v>
+      </c>
+      <c r="C122">
+        <v>69000</v>
+      </c>
+      <c r="D122">
+        <v>69070</v>
+      </c>
+      <c r="E122">
+        <v>68270</v>
+      </c>
+      <c r="F122">
+        <v>68270</v>
+      </c>
+      <c r="G122">
+        <v>62286</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>20231202</v>
+        <v>20231205</v>
       </c>
       <c r="B123">
-        <v>2401</v>
+        <v>202401</v>
+      </c>
+      <c r="C123">
+        <v>68270</v>
+      </c>
+      <c r="D123">
+        <v>68290</v>
+      </c>
+      <c r="E123">
+        <v>67500</v>
+      </c>
+      <c r="F123">
+        <v>67620</v>
+      </c>
+      <c r="G123">
+        <v>80312</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>20231223</v>
+        <v>20231206</v>
       </c>
       <c r="B124">
-        <v>2402</v>
+        <v>202401</v>
+      </c>
+      <c r="C124">
+        <v>67620</v>
+      </c>
+      <c r="D124">
+        <v>68190</v>
+      </c>
+      <c r="E124">
+        <v>67490</v>
+      </c>
+      <c r="F124">
+        <v>67770</v>
+      </c>
+      <c r="G124">
+        <v>54808</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>20231104</v>
+        <v>20231207</v>
       </c>
       <c r="B125">
-        <v>2312</v>
+        <v>202401</v>
+      </c>
+      <c r="C125">
+        <v>67780</v>
+      </c>
+      <c r="D125">
+        <v>67790</v>
+      </c>
+      <c r="E125">
+        <v>67200</v>
+      </c>
+      <c r="F125">
+        <v>67500</v>
+      </c>
+      <c r="G125">
+        <v>71106</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>20230902</v>
+        <v>20231208</v>
       </c>
       <c r="B126">
-        <v>2310</v>
+        <v>202401</v>
+      </c>
+      <c r="C126">
+        <v>67500</v>
+      </c>
+      <c r="D126">
+        <v>68800</v>
+      </c>
+      <c r="E126">
+        <v>67490</v>
+      </c>
+      <c r="F126">
+        <v>68760</v>
+      </c>
+      <c r="G126">
+        <v>69600</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>20230923</v>
+        <v>20231209</v>
       </c>
       <c r="B127">
-        <v>2311</v>
+        <v>202401</v>
+      </c>
+      <c r="C127">
+        <v>68760</v>
+      </c>
+      <c r="D127">
+        <v>68770</v>
+      </c>
+      <c r="E127">
+        <v>68540</v>
+      </c>
+      <c r="F127">
+        <v>68540</v>
+      </c>
+      <c r="G127">
+        <v>2942</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>20231209</v>
+        <v>20231211</v>
       </c>
       <c r="B128">
-        <v>2401</v>
+        <v>202401</v>
+      </c>
+      <c r="C128">
+        <v>68540</v>
+      </c>
+      <c r="D128">
+        <v>68550</v>
+      </c>
+      <c r="E128">
+        <v>67800</v>
+      </c>
+      <c r="F128">
+        <v>67990</v>
+      </c>
+      <c r="G128">
+        <v>62535</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>20231125</v>
+        <v>20231212</v>
       </c>
       <c r="B129">
-        <v>2401</v>
+        <v>202401</v>
       </c>
       <c r="C129">
+        <v>67990</v>
+      </c>
+      <c r="D129">
+        <v>68180</v>
+      </c>
+      <c r="E129">
+        <v>67740</v>
+      </c>
+      <c r="F129">
         <v>68020</v>
       </c>
-      <c r="D129">
-        <v>68110</v>
-      </c>
-      <c r="E129">
-        <v>67970</v>
-      </c>
-      <c r="F129">
-        <v>68010</v>
-      </c>
       <c r="G129">
-        <v>2811</v>
+        <v>53167</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>20231111</v>
+        <v>20231213</v>
       </c>
       <c r="B130">
-        <v>2312</v>
+        <v>202401</v>
+      </c>
+      <c r="C130">
+        <v>68010</v>
+      </c>
+      <c r="D130">
+        <v>68090</v>
+      </c>
+      <c r="E130">
+        <v>67690</v>
+      </c>
+      <c r="F130">
+        <v>67790</v>
+      </c>
+      <c r="G130">
+        <v>46177</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
+        <v>20231214</v>
+      </c>
+      <c r="B131">
+        <v>202401</v>
+      </c>
+      <c r="C131">
+        <v>67790</v>
+      </c>
+      <c r="D131">
+        <v>68870</v>
+      </c>
+      <c r="E131">
+        <v>67720</v>
+      </c>
+      <c r="F131">
+        <v>68700</v>
+      </c>
+      <c r="G131">
+        <v>75380</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="2" customFormat="1">
+      <c r="A132" s="2">
+        <v>20231215</v>
+      </c>
+      <c r="B132" s="2">
+        <v>202402</v>
+      </c>
+      <c r="C132" s="2">
+        <v>68530</v>
+      </c>
+      <c r="D132" s="2">
+        <v>68640</v>
+      </c>
+      <c r="E132" s="2">
+        <v>68170</v>
+      </c>
+      <c r="F132" s="2">
+        <v>68550</v>
+      </c>
+      <c r="G132" s="2">
+        <v>42447</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="2" customFormat="1">
+      <c r="A133" s="2">
         <v>20231216</v>
       </c>
-      <c r="B131">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132">
-        <v>20231021</v>
-      </c>
-      <c r="B132">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
-        <v>20230812</v>
-      </c>
-      <c r="B133">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134">
-        <v>20230715</v>
-      </c>
-      <c r="B134">
-        <v>2308</v>
+      <c r="B133" s="2">
+        <v>202401</v>
+      </c>
+      <c r="C133" s="2">
+        <v>68680</v>
+      </c>
+      <c r="D133" s="2">
+        <v>68750</v>
+      </c>
+      <c r="E133" s="2">
+        <v>68600</v>
+      </c>
+      <c r="F133" s="2">
+        <v>68670</v>
+      </c>
+      <c r="G133" s="2">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="2" customFormat="1">
+      <c r="A134" s="2">
+        <v>20231218</v>
+      </c>
+      <c r="B134" s="2">
+        <v>202402</v>
+      </c>
+      <c r="C134" s="2">
+        <v>68480</v>
+      </c>
+      <c r="D134" s="2">
+        <v>68580</v>
+      </c>
+      <c r="E134" s="2">
+        <v>68280</v>
+      </c>
+      <c r="F134" s="2">
+        <v>68300</v>
+      </c>
+      <c r="G134" s="2">
+        <v>32279</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>20231028</v>
+        <v>20231219</v>
       </c>
       <c r="B135">
-        <v>2312</v>
+        <v>202402</v>
+      </c>
+      <c r="C135">
+        <v>68290</v>
+      </c>
+      <c r="D135">
+        <v>69180</v>
+      </c>
+      <c r="E135">
+        <v>68230</v>
+      </c>
+      <c r="F135">
+        <v>68930</v>
+      </c>
+      <c r="G135">
+        <v>56862</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>20230819</v>
+        <v>20231220</v>
       </c>
       <c r="B136">
-        <v>2309</v>
+        <v>202402</v>
+      </c>
+      <c r="C136">
+        <v>68930</v>
+      </c>
+      <c r="D136">
+        <v>69020</v>
+      </c>
+      <c r="E136">
+        <v>68610</v>
+      </c>
+      <c r="F136">
+        <v>68760</v>
+      </c>
+      <c r="G136">
+        <v>63100</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>20230826</v>
+        <v>20231221</v>
       </c>
       <c r="B137">
-        <v>2310</v>
+        <v>202402</v>
+      </c>
+      <c r="C137">
+        <v>68760</v>
+      </c>
+      <c r="D137">
+        <v>69100</v>
+      </c>
+      <c r="E137">
+        <v>68650</v>
+      </c>
+      <c r="F137">
+        <v>68910</v>
+      </c>
+      <c r="G137">
+        <v>64513</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>20231014</v>
+        <v>20231222</v>
       </c>
       <c r="B138">
-        <v>2311</v>
+        <v>202402</v>
+      </c>
+      <c r="C138">
+        <v>68910</v>
+      </c>
+      <c r="D138">
+        <v>69290</v>
+      </c>
+      <c r="E138">
+        <v>68880</v>
+      </c>
+      <c r="F138">
+        <v>69010</v>
+      </c>
+      <c r="G138">
+        <v>63595</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>20230805</v>
+        <v>20231223</v>
       </c>
       <c r="B139">
-        <v>2309</v>
+        <v>202402</v>
+      </c>
+      <c r="C139">
+        <v>69010</v>
+      </c>
+      <c r="D139">
+        <v>69100</v>
+      </c>
+      <c r="E139">
+        <v>68920</v>
+      </c>
+      <c r="F139">
+        <v>69080</v>
+      </c>
+      <c r="G139">
+        <v>4859</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>20230722</v>
+        <v>20231225</v>
       </c>
       <c r="B140">
-        <v>2309</v>
+        <v>202402</v>
       </c>
       <c r="C140">
-        <v>68190</v>
+        <v>69040</v>
       </c>
       <c r="D140">
-        <v>68240</v>
+        <v>69140</v>
       </c>
       <c r="E140">
-        <v>68150</v>
+        <v>68930</v>
       </c>
       <c r="F140">
-        <v>68230</v>
+        <v>69100</v>
       </c>
       <c r="G140">
-        <v>1489</v>
+        <v>31437</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>20231118</v>
+        <v>20231226</v>
       </c>
       <c r="B141">
-        <v>2312</v>
+        <v>202402</v>
+      </c>
+      <c r="C141">
+        <v>69100</v>
+      </c>
+      <c r="D141">
+        <v>69400</v>
+      </c>
+      <c r="E141">
+        <v>68970</v>
+      </c>
+      <c r="F141">
+        <v>69040</v>
+      </c>
+      <c r="G141">
+        <v>64428</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>20230909</v>
+        <v>20231227</v>
       </c>
       <c r="B142">
-        <v>2310</v>
+        <v>202402</v>
+      </c>
+      <c r="C142">
+        <v>69050</v>
+      </c>
+      <c r="D142">
+        <v>69870</v>
+      </c>
+      <c r="E142">
+        <v>68980</v>
+      </c>
+      <c r="F142">
+        <v>69680</v>
+      </c>
+      <c r="G142">
+        <v>62725</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>20230708</v>
+        <v>20231228</v>
       </c>
       <c r="B143">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144">
-        <v>20230916</v>
-      </c>
-      <c r="B144">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145">
-        <v>20231217</v>
-      </c>
-      <c r="B145">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146">
-        <v>20230820</v>
-      </c>
-      <c r="B146">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147">
-        <v>20230730</v>
-      </c>
-      <c r="B147">
-        <v>2311</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148">
-        <v>20231224</v>
-      </c>
-      <c r="B148">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149">
-        <v>20230917</v>
-      </c>
-      <c r="B149">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150">
-        <v>20230806</v>
-      </c>
-      <c r="B150">
-        <v>2311</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151">
-        <v>20230827</v>
-      </c>
-      <c r="B151">
-        <v>2311</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152">
-        <v>20231029</v>
-      </c>
-      <c r="B152">
-        <v>2311</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153">
-        <v>20231126</v>
-      </c>
-      <c r="B153">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154">
-        <v>20230903</v>
-      </c>
-      <c r="B154">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155">
-        <v>20230709</v>
-      </c>
-      <c r="B155">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156">
-        <v>20231105</v>
-      </c>
-      <c r="B156">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157">
-        <v>20231022</v>
-      </c>
-      <c r="B157">
-        <v>2311</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158">
-        <v>20231015</v>
-      </c>
-      <c r="B158">
-        <v>2311</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159">
-        <v>20231203</v>
-      </c>
-      <c r="B159">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160">
-        <v>20230930</v>
-      </c>
-      <c r="B160">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161">
-        <v>20231001</v>
-      </c>
-      <c r="B161">
-        <v>2311</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162">
-        <v>20230929</v>
-      </c>
-      <c r="B162">
-        <v>2311</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163">
-        <v>20231002</v>
-      </c>
-      <c r="B163">
-        <v>2311</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164">
-        <v>20231003</v>
-      </c>
-      <c r="B164">
-        <v>2311</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165">
-        <v>20231004</v>
-      </c>
-      <c r="B165">
-        <v>2311</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166">
-        <v>20231005</v>
-      </c>
-      <c r="B166">
-        <v>2311</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167">
-        <v>20230924</v>
-      </c>
-      <c r="B167">
-        <v>2311</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168">
-        <v>20231210</v>
-      </c>
-      <c r="B168">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169">
-        <v>20231006</v>
-      </c>
-      <c r="B169">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170">
-        <v>20231007</v>
-      </c>
-      <c r="B170">
-        <v>2311</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171">
-        <v>20231008</v>
-      </c>
-      <c r="B171">
-        <v>2311</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172">
-        <v>20230716</v>
-      </c>
-      <c r="B172">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173">
-        <v>20230813</v>
-      </c>
-      <c r="B173">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174">
-        <v>20231112</v>
-      </c>
-      <c r="B174">
-        <v>2311</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175">
-        <v>20231119</v>
-      </c>
-      <c r="B175">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176">
-        <v>20230910</v>
-      </c>
-      <c r="B176">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177">
-        <v>20230723</v>
-      </c>
-      <c r="B177">
-        <v>2311</v>
+        <v>202402</v>
+      </c>
+      <c r="C143">
+        <v>69670</v>
+      </c>
+      <c r="D143">
+        <v>69750</v>
+      </c>
+      <c r="E143">
+        <v>68930</v>
+      </c>
+      <c r="F143">
+        <v>69050</v>
+      </c>
+      <c r="G143">
+        <v>61415</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="2" customFormat="1">
+      <c r="A144" s="2">
+        <v>20231229</v>
+      </c>
+      <c r="B144" s="2">
+        <v>202403</v>
+      </c>
+      <c r="C144" s="2">
+        <v>69040</v>
+      </c>
+      <c r="D144" s="2">
+        <v>69040</v>
+      </c>
+      <c r="E144" s="2">
+        <v>68810</v>
+      </c>
+      <c r="F144" s="2">
+        <v>68890</v>
+      </c>
+      <c r="G144" s="2">
+        <v>23134</v>
       </c>
     </row>
   </sheetData>
